--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/75/Output_5_5.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/75/Output_5_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1677733.163907026</v>
+        <v>-1571853.601545939</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8055467.315111709</v>
+        <v>6549343.963692135</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12737942.75659603</v>
+        <v>12811078.33134853</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4192906078700389</v>
+        <v>248.2958042702301</v>
       </c>
       <c r="E2" t="n">
-        <v>10.19681332827224</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
         <v>4.641001266096112</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>4.235841136991852</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>16.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -735,28 +735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F3" t="n">
-        <v>16.8201079258493</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G3" t="n">
-        <v>16.8201079258493</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H3" t="n">
-        <v>14.81515106108805</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>20.54110546596236</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,25 +786,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>16.8201079258493</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="4">
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>16.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>16.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>14.81515106108805</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>157.0264238519911</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
         <v>6.023344779862555</v>
@@ -905,10 +905,10 @@
         <v>10.19681332827224</v>
       </c>
       <c r="F5" t="n">
-        <v>187.7344550284143</v>
+        <v>193.2950092311239</v>
       </c>
       <c r="G5" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>231.3474543231442</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>231.3474543231442</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -1023,25 +1023,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y6" t="n">
-        <v>86.87066496035817</v>
+        <v>157.8079400398084</v>
       </c>
     </row>
     <row r="7">
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>231.3474543231442</v>
+        <v>218.6465360846245</v>
       </c>
       <c r="U7" t="n">
-        <v>231.3474543231442</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.5925633470143549</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>390.1527797502169</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>390.1527797502169</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D8" t="n">
-        <v>227.6671195982956</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E8" t="n">
-        <v>10.19681332827224</v>
+        <v>203.6763230987545</v>
       </c>
       <c r="F8" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
         <v>4.641001266096112</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
         <v>219.9844192126098</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1218,19 +1218,19 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E9" t="n">
-        <v>69.48827566383231</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1263,7 +1263,7 @@
         <v>106.9101097868343</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U9" t="n">
         <v>195.3773027531635</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1342,13 +1342,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>266.2723283900672</v>
+        <v>96.67586988827661</v>
       </c>
       <c r="W10" t="n">
         <v>276.2789678462144</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>368.5981234669177</v>
+        <v>370.4951974799239</v>
       </c>
       <c r="C11" t="n">
-        <v>368.5025003789357</v>
+        <v>370.3995743919419</v>
       </c>
       <c r="D11" t="n">
-        <v>362.8984462069432</v>
+        <v>364.7955202199494</v>
       </c>
       <c r="E11" t="n">
-        <v>372.6759689273454</v>
+        <v>374.5730429403516</v>
       </c>
       <c r="F11" t="n">
-        <v>379.2992635249224</v>
+        <v>381.1963375379287</v>
       </c>
       <c r="G11" t="n">
-        <v>367.1201568651692</v>
+        <v>369.0172308781755</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>272.1756420106386</v>
       </c>
       <c r="I11" t="n">
-        <v>47.96740065517069</v>
+        <v>49.86447466817695</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>96.40742005291327</v>
+        <v>98.30449406591953</v>
       </c>
       <c r="T11" t="n">
-        <v>182.4635748116829</v>
+        <v>184.3606488246892</v>
       </c>
       <c r="U11" t="n">
-        <v>79.80915654697171</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>308.8183347159572</v>
+        <v>243.3858569375381</v>
       </c>
       <c r="W11" t="n">
-        <v>342.4018534552562</v>
+        <v>344.2989274682625</v>
       </c>
       <c r="X11" t="n">
-        <v>359.1161194518101</v>
+        <v>361.0131934648164</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.4064619204639</v>
+        <v>361.3035359334702</v>
       </c>
     </row>
     <row r="12">
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>148.3018649291771</v>
+        <v>34.23800520465554</v>
       </c>
       <c r="C13" t="n">
-        <v>131.8615943129738</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>120.3788538293922</v>
+        <v>122.2759278423985</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>129.9541167757914</v>
       </c>
       <c r="H13" t="n">
-        <v>23.2826629649378</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>77.66174103579023</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.89914674042747</v>
+        <v>48.79622075343372</v>
       </c>
       <c r="S13" t="n">
-        <v>147.007006037962</v>
+        <v>148.9040800509682</v>
       </c>
       <c r="T13" t="n">
-        <v>199.632407232138</v>
+        <v>201.5294812451443</v>
       </c>
       <c r="U13" t="n">
-        <v>242.4493215784102</v>
+        <v>244.3463955914165</v>
       </c>
       <c r="V13" t="n">
-        <v>233.6260432089464</v>
+        <v>235.5231172219526</v>
       </c>
       <c r="W13" t="n">
-        <v>238.7581234452875</v>
+        <v>240.6551974582937</v>
       </c>
       <c r="X13" t="n">
-        <v>198.4395791179866</v>
+        <v>200.3366531309928</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>186.8645712372023</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>368.5981234669177</v>
+        <v>370.4951974799239</v>
       </c>
       <c r="C14" t="n">
-        <v>368.5025003789357</v>
+        <v>370.3995743919419</v>
       </c>
       <c r="D14" t="n">
-        <v>362.8984462069432</v>
+        <v>364.7955202199494</v>
       </c>
       <c r="E14" t="n">
-        <v>372.6759689273454</v>
+        <v>374.5730429403516</v>
       </c>
       <c r="F14" t="n">
-        <v>379.2992635249225</v>
+        <v>381.1963375379287</v>
       </c>
       <c r="G14" t="n">
-        <v>367.1201568651693</v>
+        <v>369.0172308781755</v>
       </c>
       <c r="H14" t="n">
-        <v>270.2785679976324</v>
+        <v>272.1756420106386</v>
       </c>
       <c r="I14" t="n">
-        <v>47.96740065517074</v>
+        <v>49.86447466817695</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>98.30449406591953</v>
       </c>
       <c r="T14" t="n">
-        <v>88.4015834139345</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>218.8661164351644</v>
       </c>
       <c r="V14" t="n">
-        <v>308.8183347159573</v>
+        <v>208.8803893270626</v>
       </c>
       <c r="W14" t="n">
-        <v>342.4018534552563</v>
+        <v>344.2989274682625</v>
       </c>
       <c r="X14" t="n">
-        <v>359.1161194518102</v>
+        <v>361.0131934648164</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.406461920464</v>
+        <v>361.3035359334702</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>148.3018649291771</v>
+        <v>150.1989389421833</v>
       </c>
       <c r="C16" t="n">
-        <v>131.8615943129738</v>
+        <v>13.99318303826356</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>122.2759278423985</v>
       </c>
       <c r="E16" t="n">
-        <v>121.7808625794369</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>125.4639702295878</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>128.0570427627852</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>110.5905362416711</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>77.66174103579027</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>48.79622075343372</v>
       </c>
       <c r="S16" t="n">
-        <v>147.007006037962</v>
+        <v>148.9040800509682</v>
       </c>
       <c r="T16" t="n">
-        <v>199.6324072321381</v>
+        <v>201.5294812451443</v>
       </c>
       <c r="U16" t="n">
-        <v>242.4493215784103</v>
+        <v>244.3463955914165</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>235.5231172219526</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>240.6551974582937</v>
       </c>
       <c r="X16" t="n">
-        <v>190.5245002692996</v>
+        <v>200.3366531309928</v>
       </c>
       <c r="Y16" t="n">
-        <v>184.9674972241961</v>
+        <v>186.8645712372023</v>
       </c>
     </row>
     <row r="17">
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>341.4355598753965</v>
+        <v>351.415486264818</v>
       </c>
       <c r="C17" t="n">
-        <v>341.3399367874144</v>
+        <v>351.319863176836</v>
       </c>
       <c r="D17" t="n">
-        <v>335.7358826154219</v>
+        <v>345.7158090048435</v>
       </c>
       <c r="E17" t="n">
-        <v>345.5134053358241</v>
+        <v>355.4933317252457</v>
       </c>
       <c r="F17" t="n">
-        <v>352.1366999334012</v>
+        <v>362.1166263228228</v>
       </c>
       <c r="G17" t="n">
-        <v>339.957593273648</v>
+        <v>349.9375196630696</v>
       </c>
       <c r="H17" t="n">
-        <v>243.1160044061111</v>
+        <v>253.0959307955326</v>
       </c>
       <c r="I17" t="n">
-        <v>20.80483706364946</v>
+        <v>30.78476345307101</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>69.24485646139203</v>
+        <v>79.22478285081358</v>
       </c>
       <c r="T17" t="n">
-        <v>155.3010112201617</v>
+        <v>165.2809376095832</v>
       </c>
       <c r="U17" t="n">
-        <v>189.8064788306369</v>
+        <v>199.7864052200584</v>
       </c>
       <c r="V17" t="n">
-        <v>281.655771124436</v>
+        <v>291.6356975138576</v>
       </c>
       <c r="W17" t="n">
-        <v>315.239289863735</v>
+        <v>325.2192162531566</v>
       </c>
       <c r="X17" t="n">
-        <v>331.9535558602889</v>
+        <v>341.9334822497104</v>
       </c>
       <c r="Y17" t="n">
-        <v>332.2438983289427</v>
+        <v>342.2238247183643</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>121.1393013376558</v>
+        <v>131.1192277270774</v>
       </c>
       <c r="C19" t="n">
-        <v>104.6990307214525</v>
+        <v>114.6789571108741</v>
       </c>
       <c r="D19" t="n">
-        <v>93.21629023787096</v>
+        <v>103.1962166272925</v>
       </c>
       <c r="E19" t="n">
-        <v>94.61829898791561</v>
+        <v>38.02230570679192</v>
       </c>
       <c r="F19" t="n">
-        <v>98.30140663806654</v>
+        <v>108.2813330274881</v>
       </c>
       <c r="G19" t="n">
-        <v>100.8944791712635</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.4279726501498</v>
+        <v>93.40789903957135</v>
       </c>
       <c r="I19" t="n">
-        <v>50.49917744426899</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>19.73658314890623</v>
+        <v>29.71650953832778</v>
       </c>
       <c r="S19" t="n">
-        <v>119.8444424464407</v>
+        <v>129.8243688358623</v>
       </c>
       <c r="T19" t="n">
-        <v>172.4698436406168</v>
+        <v>182.4497700300383</v>
       </c>
       <c r="U19" t="n">
-        <v>215.286757986889</v>
+        <v>225.2666843763105</v>
       </c>
       <c r="V19" t="n">
-        <v>206.4634796174252</v>
+        <v>216.4434060068467</v>
       </c>
       <c r="W19" t="n">
-        <v>211.5955598537662</v>
+        <v>221.5754862431878</v>
       </c>
       <c r="X19" t="n">
-        <v>171.2770155264653</v>
+        <v>181.2569419158869</v>
       </c>
       <c r="Y19" t="n">
-        <v>157.8049336326748</v>
+        <v>167.7848600220964</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>341.4355598753965</v>
+        <v>351.415486264818</v>
       </c>
       <c r="C20" t="n">
-        <v>341.3399367874144</v>
+        <v>351.319863176836</v>
       </c>
       <c r="D20" t="n">
-        <v>335.7358826154219</v>
+        <v>345.7158090048435</v>
       </c>
       <c r="E20" t="n">
-        <v>345.5134053358241</v>
+        <v>355.4933317252457</v>
       </c>
       <c r="F20" t="n">
-        <v>352.1366999334012</v>
+        <v>362.1166263228228</v>
       </c>
       <c r="G20" t="n">
-        <v>339.957593273648</v>
+        <v>349.9375196630696</v>
       </c>
       <c r="H20" t="n">
-        <v>243.1160044061111</v>
+        <v>253.0959307955326</v>
       </c>
       <c r="I20" t="n">
-        <v>20.80483706364946</v>
+        <v>30.78476345307101</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>69.24485646139203</v>
+        <v>79.22478285081358</v>
       </c>
       <c r="T20" t="n">
-        <v>155.3010112201617</v>
+        <v>165.2809376095832</v>
       </c>
       <c r="U20" t="n">
-        <v>189.8064788306369</v>
+        <v>199.7864052200584</v>
       </c>
       <c r="V20" t="n">
-        <v>281.655771124436</v>
+        <v>291.6356975138576</v>
       </c>
       <c r="W20" t="n">
-        <v>315.239289863735</v>
+        <v>325.2192162531566</v>
       </c>
       <c r="X20" t="n">
-        <v>331.9535558602889</v>
+        <v>341.9334822497104</v>
       </c>
       <c r="Y20" t="n">
-        <v>332.2438983289427</v>
+        <v>342.2238247183643</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>121.1393013376558</v>
+        <v>131.1192277270774</v>
       </c>
       <c r="C22" t="n">
-        <v>104.6990307214525</v>
+        <v>30.63653091921492</v>
       </c>
       <c r="D22" t="n">
-        <v>93.21629023787096</v>
+        <v>103.1962166272925</v>
       </c>
       <c r="E22" t="n">
-        <v>94.61829898791561</v>
+        <v>104.5982253773372</v>
       </c>
       <c r="F22" t="n">
-        <v>98.30140663806654</v>
+        <v>108.2813330274881</v>
       </c>
       <c r="G22" t="n">
-        <v>100.8944791712639</v>
+        <v>110.8744055606854</v>
       </c>
       <c r="H22" t="n">
-        <v>83.4279726501498</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>50.49917744426899</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>19.73658314890623</v>
+        <v>29.71650953832778</v>
       </c>
       <c r="S22" t="n">
-        <v>119.8444424464407</v>
+        <v>129.8243688358623</v>
       </c>
       <c r="T22" t="n">
-        <v>172.4698436406168</v>
+        <v>182.4497700300383</v>
       </c>
       <c r="U22" t="n">
-        <v>215.286757986889</v>
+        <v>225.2666843763105</v>
       </c>
       <c r="V22" t="n">
-        <v>206.4634796174252</v>
+        <v>216.4434060068467</v>
       </c>
       <c r="W22" t="n">
-        <v>211.5955598537662</v>
+        <v>221.5754862431878</v>
       </c>
       <c r="X22" t="n">
-        <v>171.2770155264653</v>
+        <v>181.2569419158869</v>
       </c>
       <c r="Y22" t="n">
-        <v>157.8049336326748</v>
+        <v>167.7848600220964</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>341.4355598753965</v>
+        <v>351.415486264818</v>
       </c>
       <c r="C23" t="n">
-        <v>341.3399367874144</v>
+        <v>351.319863176836</v>
       </c>
       <c r="D23" t="n">
-        <v>335.7358826154219</v>
+        <v>345.7158090048435</v>
       </c>
       <c r="E23" t="n">
-        <v>345.5134053358241</v>
+        <v>355.4933317252457</v>
       </c>
       <c r="F23" t="n">
-        <v>352.1366999334012</v>
+        <v>362.1166263228228</v>
       </c>
       <c r="G23" t="n">
-        <v>339.957593273648</v>
+        <v>349.9375196630696</v>
       </c>
       <c r="H23" t="n">
-        <v>243.1160044061111</v>
+        <v>253.0959307955326</v>
       </c>
       <c r="I23" t="n">
-        <v>20.80483706364946</v>
+        <v>30.78476345307101</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>69.24485646139203</v>
+        <v>79.22478285081358</v>
       </c>
       <c r="T23" t="n">
-        <v>155.3010112201617</v>
+        <v>165.2809376095832</v>
       </c>
       <c r="U23" t="n">
-        <v>189.8064788306369</v>
+        <v>199.7864052200584</v>
       </c>
       <c r="V23" t="n">
-        <v>281.655771124436</v>
+        <v>291.6356975138576</v>
       </c>
       <c r="W23" t="n">
-        <v>315.239289863735</v>
+        <v>325.2192162531566</v>
       </c>
       <c r="X23" t="n">
-        <v>331.9535558602889</v>
+        <v>341.9334822497104</v>
       </c>
       <c r="Y23" t="n">
-        <v>332.2438983289426</v>
+        <v>342.2238247183643</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>121.1393013376558</v>
+        <v>131.1192277270774</v>
       </c>
       <c r="C25" t="n">
-        <v>104.6990307214525</v>
+        <v>114.6789571108741</v>
       </c>
       <c r="D25" t="n">
-        <v>93.21629023787096</v>
+        <v>36.62029695674661</v>
       </c>
       <c r="E25" t="n">
-        <v>94.61829898791561</v>
+        <v>104.5982253773372</v>
       </c>
       <c r="F25" t="n">
-        <v>98.30140663806654</v>
+        <v>108.2813330274881</v>
       </c>
       <c r="G25" t="n">
-        <v>100.8944791712639</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.4279726501498</v>
+        <v>93.40789903957135</v>
       </c>
       <c r="I25" t="n">
-        <v>50.49917744426899</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>19.73658314890623</v>
+        <v>29.71650953832778</v>
       </c>
       <c r="S25" t="n">
-        <v>119.8444424464407</v>
+        <v>129.8243688358623</v>
       </c>
       <c r="T25" t="n">
-        <v>172.4698436406168</v>
+        <v>182.4497700300383</v>
       </c>
       <c r="U25" t="n">
-        <v>215.286757986889</v>
+        <v>225.2666843763105</v>
       </c>
       <c r="V25" t="n">
-        <v>206.4634796174252</v>
+        <v>216.4434060068467</v>
       </c>
       <c r="W25" t="n">
-        <v>211.5955598537662</v>
+        <v>221.5754862431878</v>
       </c>
       <c r="X25" t="n">
-        <v>171.2770155264653</v>
+        <v>181.2569419158869</v>
       </c>
       <c r="Y25" t="n">
-        <v>157.8049336326748</v>
+        <v>167.7848600220964</v>
       </c>
     </row>
     <row r="26">
@@ -2552,16 +2552,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>376.6200261415066</v>
+        <v>376.6200261415065</v>
       </c>
       <c r="C26" t="n">
-        <v>376.5244030535246</v>
+        <v>376.5244030535245</v>
       </c>
       <c r="D26" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E26" t="n">
-        <v>380.6978716019343</v>
+        <v>380.6978716019342</v>
       </c>
       <c r="F26" t="n">
         <v>387.3211661995113</v>
@@ -2570,10 +2570,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H26" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722211</v>
       </c>
       <c r="I26" t="n">
-        <v>55.98930332975957</v>
+        <v>55.98930332975952</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>104.4293227275022</v>
+        <v>104.4293227275021</v>
       </c>
       <c r="T26" t="n">
-        <v>190.4854774862718</v>
+        <v>190.4854774862717</v>
       </c>
       <c r="U26" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967469</v>
       </c>
       <c r="V26" t="n">
         <v>316.8402373905461</v>
@@ -2618,7 +2618,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X26" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263989</v>
       </c>
       <c r="Y26" t="n">
         <v>367.4283645950528</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>139.8834969875627</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>128.400756503981</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>25.097384705858</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>54.92104941501635</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>155.0289087125508</v>
+        <v>131.1115685964714</v>
       </c>
       <c r="T28" t="n">
         <v>207.6543099067269</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>250.471224252999</v>
       </c>
       <c r="V28" t="n">
-        <v>241.6479458835353</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W28" t="n">
-        <v>246.7800261198764</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X28" t="n">
-        <v>206.4614817925755</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y28" t="n">
         <v>192.9893998987849</v>
@@ -2810,7 +2810,7 @@
         <v>278.3004706722211</v>
       </c>
       <c r="I29" t="n">
-        <v>55.98930332975951</v>
+        <v>55.98930332975952</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>156.3237676037659</v>
       </c>
       <c r="C31" t="n">
-        <v>2.359502061319631</v>
+        <v>33.12209635668226</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>85.68364371037904</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.92104941501629</v>
       </c>
       <c r="S31" t="n">
         <v>155.0289087125508</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>341.4355598753965</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>341.3399367874144</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>335.7358826154219</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>345.5134053358241</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>352.1366999334012</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>339.957593273648</v>
+        <v>350.2573233257139</v>
       </c>
       <c r="H32" t="n">
-        <v>243.1160044061111</v>
+        <v>243.116004406111</v>
       </c>
       <c r="I32" t="n">
-        <v>20.80483706364946</v>
+        <v>20.80483706364942</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>69.24485646139203</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>155.3010112201617</v>
+        <v>155.3010112201616</v>
       </c>
       <c r="U32" t="n">
-        <v>189.8064788306369</v>
+        <v>189.8064788306368</v>
       </c>
       <c r="V32" t="n">
-        <v>281.655771124436</v>
+        <v>281.6557711244359</v>
       </c>
       <c r="W32" t="n">
-        <v>315.239289863735</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>331.9535558602889</v>
+        <v>331.9535558602888</v>
       </c>
       <c r="Y32" t="n">
-        <v>332.2438983289427</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -3190,22 +3190,22 @@
         <v>104.6990307214525</v>
       </c>
       <c r="D34" t="n">
-        <v>93.21629023787096</v>
+        <v>93.21629023787092</v>
       </c>
       <c r="E34" t="n">
-        <v>94.61829898791561</v>
+        <v>94.61829898791557</v>
       </c>
       <c r="F34" t="n">
-        <v>98.30140663806654</v>
+        <v>98.3014066380665</v>
       </c>
       <c r="G34" t="n">
         <v>100.8944791712639</v>
       </c>
       <c r="H34" t="n">
-        <v>83.4279726501498</v>
+        <v>83.42797265014975</v>
       </c>
       <c r="I34" t="n">
-        <v>50.49917744426899</v>
+        <v>50.49917744426895</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>19.73658314890623</v>
+        <v>19.73658314890619</v>
       </c>
       <c r="S34" t="n">
         <v>119.8444424464407</v>
@@ -3241,10 +3241,10 @@
         <v>172.4698436406168</v>
       </c>
       <c r="U34" t="n">
-        <v>215.286757986889</v>
+        <v>215.2867579868889</v>
       </c>
       <c r="V34" t="n">
-        <v>206.4634796174252</v>
+        <v>206.4634796174251</v>
       </c>
       <c r="W34" t="n">
         <v>211.5955598537662</v>
@@ -4153,7 +4153,7 @@
         <v>83.4279726501498</v>
       </c>
       <c r="I46" t="n">
-        <v>50.49917744426899</v>
+        <v>50.49917744426859</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>39.83102066230052</v>
+        <v>1542.752026609714</v>
       </c>
       <c r="C2" t="n">
-        <v>33.74683401597471</v>
+        <v>1132.627435922984</v>
       </c>
       <c r="D2" t="n">
-        <v>33.32330814943931</v>
+        <v>881.8235932257816</v>
       </c>
       <c r="E2" t="n">
-        <v>23.02349670674008</v>
+        <v>467.4833777426783</v>
       </c>
       <c r="F2" t="n">
-        <v>6.033488700831693</v>
+        <v>46.45296569636579</v>
       </c>
       <c r="G2" t="n">
-        <v>1.345608634067944</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H2" t="n">
-        <v>1.345608634067944</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I2" t="n">
-        <v>1.345608634067944</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>17.99751548065875</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>34.64942232724955</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L2" t="n">
-        <v>34.64942232724955</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="M2" t="n">
-        <v>34.64942232724955</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="N2" t="n">
-        <v>34.64942232724955</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O2" t="n">
-        <v>34.64942232724955</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P2" t="n">
-        <v>34.64942232724955</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q2" t="n">
-        <v>50.62852485680639</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R2" t="n">
-        <v>67.2804317033972</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>67.2804317033972</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T2" t="n">
-        <v>63.00180429229432</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U2" t="n">
-        <v>63.00180429229432</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V2" t="n">
-        <v>46.01179628638593</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="W2" t="n">
-        <v>46.01179628638593</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="X2" t="n">
-        <v>46.01179628638593</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="Y2" t="n">
-        <v>46.01179628638593</v>
+        <v>1952.973206274203</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>50.29042369748881</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C3" t="n">
-        <v>50.29042369748881</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D3" t="n">
-        <v>50.29042369748881</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E3" t="n">
-        <v>50.29042369748881</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F3" t="n">
-        <v>33.30041569158043</v>
+        <v>240.2510026593073</v>
       </c>
       <c r="G3" t="n">
-        <v>16.31040768567204</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H3" t="n">
-        <v>1.345608634067944</v>
+        <v>62.51367700936201</v>
       </c>
       <c r="I3" t="n">
-        <v>1.345608634067944</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J3" t="n">
-        <v>17.99751548065875</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K3" t="n">
-        <v>17.99751548065875</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L3" t="n">
-        <v>17.99751548065875</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="M3" t="n">
-        <v>33.97661801021559</v>
+        <v>1531.257211227551</v>
       </c>
       <c r="N3" t="n">
-        <v>50.62852485680639</v>
+        <v>1531.257211227551</v>
       </c>
       <c r="O3" t="n">
-        <v>50.62852485680639</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="P3" t="n">
-        <v>67.2804317033972</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q3" t="n">
-        <v>67.2804317033972</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R3" t="n">
-        <v>67.2804317033972</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S3" t="n">
-        <v>50.29042369748881</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T3" t="n">
-        <v>50.29042369748881</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U3" t="n">
-        <v>50.29042369748881</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V3" t="n">
-        <v>50.29042369748881</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W3" t="n">
-        <v>50.29042369748881</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X3" t="n">
-        <v>50.29042369748881</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>50.29042369748881</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>35.32562464588472</v>
+        <v>206.3962115190108</v>
       </c>
       <c r="C4" t="n">
-        <v>18.33561663997633</v>
+        <v>206.3962115190108</v>
       </c>
       <c r="D4" t="n">
-        <v>1.345608634067944</v>
+        <v>206.3962115190108</v>
       </c>
       <c r="E4" t="n">
-        <v>1.345608634067944</v>
+        <v>206.3962115190108</v>
       </c>
       <c r="F4" t="n">
-        <v>1.345608634067944</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G4" t="n">
-        <v>1.345608634067944</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H4" t="n">
-        <v>1.345608634067944</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
-        <v>1.345608634067944</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J4" t="n">
-        <v>1.345608634067944</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K4" t="n">
-        <v>1.345608634067944</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L4" t="n">
-        <v>17.32471116362478</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M4" t="n">
-        <v>33.97661801021559</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N4" t="n">
-        <v>50.62852485680639</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O4" t="n">
-        <v>67.2804317033972</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P4" t="n">
-        <v>67.2804317033972</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.2804317033972</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>52.3156326517931</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>52.3156326517931</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T4" t="n">
-        <v>52.3156326517931</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="U4" t="n">
-        <v>52.3156326517931</v>
+        <v>1101.974066676486</v>
       </c>
       <c r="V4" t="n">
-        <v>52.3156326517931</v>
+        <v>828.0883216160082</v>
       </c>
       <c r="W4" t="n">
-        <v>52.3156326517931</v>
+        <v>669.4757722705626</v>
       </c>
       <c r="X4" t="n">
-        <v>52.3156326517931</v>
+        <v>431.1319101302461</v>
       </c>
       <c r="Y4" t="n">
-        <v>52.3156326517931</v>
+        <v>206.3962115190108</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>229.6339630231397</v>
+        <v>662.5483777641728</v>
       </c>
       <c r="C5" t="n">
-        <v>223.5497763768139</v>
+        <v>656.4641911178469</v>
       </c>
       <c r="D5" t="n">
-        <v>223.1262505102785</v>
+        <v>656.0406652513115</v>
       </c>
       <c r="E5" t="n">
-        <v>212.8264390675793</v>
+        <v>645.7408538086122</v>
       </c>
       <c r="F5" t="n">
-        <v>23.19567641261528</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G5" t="n">
-        <v>18.50779634585153</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H5" t="n">
-        <v>18.50779634585153</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I5" t="n">
-        <v>18.50779634585153</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>18.50779634585153</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K5" t="n">
-        <v>18.50779634585153</v>
+        <v>497.1688317915616</v>
       </c>
       <c r="L5" t="n">
-        <v>18.50779634585153</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="M5" t="n">
-        <v>247.5417761257643</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="N5" t="n">
-        <v>476.575755905677</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="O5" t="n">
-        <v>705.6097356855897</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="P5" t="n">
-        <v>925.3898172925767</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q5" t="n">
-        <v>925.3898172925767</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R5" t="n">
-        <v>925.3898172925767</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>925.3898172925767</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>703.1833332394356</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U5" t="n">
-        <v>469.4990359433303</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V5" t="n">
-        <v>235.8147386472251</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="W5" t="n">
-        <v>235.8147386472251</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="X5" t="n">
-        <v>235.8147386472251</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="Y5" t="n">
-        <v>235.8147386472251</v>
+        <v>1072.769557428662</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>697.3386382323858</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C6" t="n">
-        <v>563.3435669813316</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D6" t="n">
-        <v>446.446409200724</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E6" t="n">
-        <v>325.953593193052</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F6" t="n">
-        <v>216.9937133755566</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G6" t="n">
-        <v>110.0036006898953</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H6" t="n">
-        <v>39.25638772561136</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I6" t="n">
-        <v>18.50779634585153</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>208.7283585902086</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K6" t="n">
-        <v>208.7283585902086</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L6" t="n">
-        <v>437.7623383701213</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="M6" t="n">
-        <v>437.7623383701213</v>
+        <v>1531.257211227551</v>
       </c>
       <c r="N6" t="n">
-        <v>437.7623383701213</v>
+        <v>2048.100145893876</v>
       </c>
       <c r="O6" t="n">
-        <v>437.7623383701213</v>
+        <v>2048.100145893876</v>
       </c>
       <c r="P6" t="n">
-        <v>666.796318150034</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q6" t="n">
-        <v>895.8302979299468</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
-        <v>925.3898172925767</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S6" t="n">
-        <v>925.3898172925767</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T6" t="n">
-        <v>925.3898172925767</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U6" t="n">
-        <v>925.3898172925767</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>925.3898172925767</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W6" t="n">
-        <v>925.3898172925767</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X6" t="n">
-        <v>925.3898172925767</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>837.6416708679725</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.7581874203081</v>
+        <v>325.3615225997325</v>
       </c>
       <c r="C7" t="n">
-        <v>185.7581874203081</v>
+        <v>325.3615225997325</v>
       </c>
       <c r="D7" t="n">
-        <v>185.7581874203081</v>
+        <v>325.3615225997325</v>
       </c>
       <c r="E7" t="n">
-        <v>185.7581874203081</v>
+        <v>325.3615225997325</v>
       </c>
       <c r="F7" t="n">
-        <v>185.7581874203081</v>
+        <v>325.3615225997325</v>
       </c>
       <c r="G7" t="n">
-        <v>18.50779634585153</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="H7" t="n">
-        <v>18.50779634585153</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I7" t="n">
-        <v>18.50779634585153</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J7" t="n">
-        <v>32.59034575106206</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K7" t="n">
-        <v>187.1426734733</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L7" t="n">
-        <v>416.1766532532127</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M7" t="n">
-        <v>645.2106330331255</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N7" t="n">
-        <v>874.2446128130382</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O7" t="n">
-        <v>925.3898172925767</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P7" t="n">
-        <v>925.3898172925767</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q7" t="n">
-        <v>925.3898172925767</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>840.1170989679764</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>653.7253308478867</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>420.0410335517814</v>
+        <v>1350.308895296286</v>
       </c>
       <c r="U7" t="n">
-        <v>186.3567362556762</v>
+        <v>1067.51074784241</v>
       </c>
       <c r="V7" t="n">
-        <v>186.3567362556762</v>
+        <v>1067.51074784241</v>
       </c>
       <c r="W7" t="n">
-        <v>186.3567362556762</v>
+        <v>788.4410833512843</v>
       </c>
       <c r="X7" t="n">
-        <v>186.3567362556762</v>
+        <v>550.0972212109677</v>
       </c>
       <c r="Y7" t="n">
-        <v>185.7581874203081</v>
+        <v>325.3615225997325</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>687.2504262878256</v>
+        <v>679.7247499512512</v>
       </c>
       <c r="C8" t="n">
-        <v>293.1567093684146</v>
+        <v>673.6405633049253</v>
       </c>
       <c r="D8" t="n">
-        <v>63.18992189538872</v>
+        <v>673.2170374383899</v>
       </c>
       <c r="E8" t="n">
-        <v>52.89011045268948</v>
+        <v>467.4833777426783</v>
       </c>
       <c r="F8" t="n">
-        <v>35.9001024467811</v>
+        <v>46.45296569636579</v>
       </c>
       <c r="G8" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H8" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I8" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>285.3976938477716</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K8" t="n">
-        <v>671.6489458004863</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L8" t="n">
-        <v>812.642214563296</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M8" t="n">
-        <v>812.642214563296</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N8" t="n">
-        <v>812.642214563296</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O8" t="n">
-        <v>812.642214563296</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P8" t="n">
-        <v>1198.893466516011</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q8" t="n">
-        <v>1520.054473311303</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R8" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S8" t="n">
-        <v>1560.611119000868</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T8" t="n">
-        <v>1338.404634947726</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U8" t="n">
-        <v>1081.344143207237</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V8" t="n">
-        <v>1081.344143207237</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="W8" t="n">
-        <v>1081.344143207237</v>
+        <v>1089.945929615741</v>
       </c>
       <c r="X8" t="n">
-        <v>1081.344143207237</v>
+        <v>1089.945929615741</v>
       </c>
       <c r="Y8" t="n">
-        <v>1081.344143207237</v>
+        <v>1089.945929615741</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>352.2946288498937</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C9" t="n">
-        <v>218.2995575988394</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D9" t="n">
-        <v>101.4023998182318</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E9" t="n">
-        <v>31.21222238001735</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F9" t="n">
-        <v>31.21222238001735</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G9" t="n">
-        <v>31.21222238001735</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H9" t="n">
-        <v>31.21222238001735</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I9" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>224.0250799426506</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K9" t="n">
-        <v>224.0250799426506</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L9" t="n">
-        <v>438.2641504114549</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="M9" t="n">
-        <v>824.5154023641696</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="N9" t="n">
-        <v>824.5154023641696</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="O9" t="n">
-        <v>824.5154023641696</v>
+        <v>1531.257211227551</v>
       </c>
       <c r="P9" t="n">
-        <v>1210.766654316884</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q9" t="n">
-        <v>1560.611119000868</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R9" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S9" t="n">
-        <v>1452.621109115176</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T9" t="n">
-        <v>1452.621109115176</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U9" t="n">
-        <v>1255.270298253395</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V9" t="n">
-        <v>1041.558771246429</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W9" t="n">
-        <v>828.3256029827575</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X9" t="n">
-        <v>651.9996211216503</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y9" t="n">
-        <v>492.5976614854803</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>361.8002394953908</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="C10" t="n">
-        <v>190.7068670571073</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="D10" t="n">
-        <v>31.21222238001735</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="E10" t="n">
-        <v>31.21222238001735</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="F10" t="n">
-        <v>31.21222238001735</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="G10" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H10" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I10" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J10" t="n">
-        <v>45.29477178522787</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K10" t="n">
-        <v>199.8470995074659</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L10" t="n">
-        <v>459.7441997875264</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M10" t="n">
-        <v>749.0082562280197</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N10" t="n">
-        <v>1029.84703862227</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O10" t="n">
-        <v>1289.407648948744</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P10" t="n">
-        <v>1495.083089198357</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q10" t="n">
-        <v>1560.611119000868</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R10" t="n">
-        <v>1560.611119000868</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S10" t="n">
-        <v>1560.611119000868</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T10" t="n">
-        <v>1560.611119000868</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U10" t="n">
-        <v>1560.611119000868</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V10" t="n">
-        <v>1291.649171132113</v>
+        <v>951.1647019467362</v>
       </c>
       <c r="W10" t="n">
-        <v>1012.579506640987</v>
+        <v>672.0950374556105</v>
       </c>
       <c r="X10" t="n">
-        <v>774.2356445006706</v>
+        <v>433.7511753152939</v>
       </c>
       <c r="Y10" t="n">
-        <v>549.4999458894353</v>
+        <v>209.0154767040586</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2000.004285144224</v>
+        <v>2289.512533220629</v>
       </c>
       <c r="C11" t="n">
-        <v>1627.779537286713</v>
+        <v>1915.371548986345</v>
       </c>
       <c r="D11" t="n">
-        <v>1261.215450208993</v>
+        <v>1546.891225531851</v>
       </c>
       <c r="E11" t="n">
-        <v>884.7750775551087</v>
+        <v>1168.534616501192</v>
       </c>
       <c r="F11" t="n">
-        <v>501.6445083380154</v>
+        <v>783.4878109073252</v>
       </c>
       <c r="G11" t="n">
-        <v>130.8160670600664</v>
+        <v>410.7431332526024</v>
       </c>
       <c r="H11" t="n">
-        <v>130.8160670600664</v>
+        <v>135.8182423327655</v>
       </c>
       <c r="I11" t="n">
-        <v>82.36414720635868</v>
+        <v>85.45008610228372</v>
       </c>
       <c r="J11" t="n">
-        <v>165.1692974300282</v>
+        <v>339.635557570038</v>
       </c>
       <c r="K11" t="n">
-        <v>703.3287985390677</v>
+        <v>877.7950586790776</v>
       </c>
       <c r="L11" t="n">
-        <v>1415.920198351306</v>
+        <v>1590.386458491316</v>
       </c>
       <c r="M11" t="n">
-        <v>2192.23878934306</v>
+        <v>2366.70504948307</v>
       </c>
       <c r="N11" t="n">
-        <v>2945.419805981678</v>
+        <v>3119.886066121688</v>
       </c>
       <c r="O11" t="n">
-        <v>3589.050662398783</v>
+        <v>3381.629954710177</v>
       </c>
       <c r="P11" t="n">
-        <v>4118.207360317934</v>
+        <v>3910.786652629329</v>
       </c>
       <c r="Q11" t="n">
-        <v>4118.207360317934</v>
+        <v>4231.947659424621</v>
       </c>
       <c r="R11" t="n">
-        <v>4118.207360317934</v>
+        <v>4272.504305114186</v>
       </c>
       <c r="S11" t="n">
-        <v>4020.826127941254</v>
+        <v>4173.206836360731</v>
       </c>
       <c r="T11" t="n">
-        <v>3836.519486717332</v>
+        <v>3986.983958760035</v>
       </c>
       <c r="U11" t="n">
-        <v>3755.904177073926</v>
+        <v>3986.983958760035</v>
       </c>
       <c r="V11" t="n">
-        <v>3443.966465239626</v>
+        <v>3741.139658823127</v>
       </c>
       <c r="W11" t="n">
-        <v>3098.106007204014</v>
+        <v>3393.362964410741</v>
       </c>
       <c r="X11" t="n">
-        <v>2735.362452202185</v>
+        <v>3028.703173032139</v>
       </c>
       <c r="Y11" t="n">
-        <v>2372.325621979494</v>
+        <v>2663.750106432674</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>761.1949890928931</v>
+        <v>764.2809279888181</v>
       </c>
       <c r="C12" t="n">
-        <v>627.1999178418388</v>
+        <v>630.2858567377638</v>
       </c>
       <c r="D12" t="n">
-        <v>510.3027600612312</v>
+        <v>513.3886989571562</v>
       </c>
       <c r="E12" t="n">
-        <v>389.8099440535592</v>
+        <v>392.8958829494842</v>
       </c>
       <c r="F12" t="n">
-        <v>280.8500642360638</v>
+        <v>283.9360031319888</v>
       </c>
       <c r="G12" t="n">
-        <v>173.8599515504025</v>
+        <v>176.9458904463275</v>
       </c>
       <c r="H12" t="n">
-        <v>103.1127385861185</v>
+        <v>106.1986774820435</v>
       </c>
       <c r="I12" t="n">
-        <v>82.36414720635868</v>
+        <v>85.45008610228372</v>
       </c>
       <c r="J12" t="n">
-        <v>275.1770047689919</v>
+        <v>85.45008610228372</v>
       </c>
       <c r="K12" t="n">
-        <v>730.9832610342906</v>
+        <v>541.2563423675824</v>
       </c>
       <c r="L12" t="n">
-        <v>730.9832610342906</v>
+        <v>541.2563423675824</v>
       </c>
       <c r="M12" t="n">
-        <v>1573.960341728857</v>
+        <v>541.2563423675824</v>
       </c>
       <c r="N12" t="n">
-        <v>1573.960341728857</v>
+        <v>1414.9144344792</v>
       </c>
       <c r="O12" t="n">
-        <v>1573.960341728857</v>
+        <v>2118.871525025094</v>
       </c>
       <c r="P12" t="n">
-        <v>1779.008878372875</v>
+        <v>2118.871525025094</v>
       </c>
       <c r="Q12" t="n">
-        <v>2128.853343056859</v>
+        <v>2131.939281952784</v>
       </c>
       <c r="R12" t="n">
-        <v>2128.853343056859</v>
+        <v>2131.939281952784</v>
       </c>
       <c r="S12" t="n">
-        <v>2020.863333171168</v>
+        <v>2023.949272067093</v>
       </c>
       <c r="T12" t="n">
-        <v>1861.521469358176</v>
+        <v>1864.607408254101</v>
       </c>
       <c r="U12" t="n">
-        <v>1664.170658496394</v>
+        <v>1667.25659739232</v>
       </c>
       <c r="V12" t="n">
-        <v>1450.459131489428</v>
+        <v>1453.545070385353</v>
       </c>
       <c r="W12" t="n">
-        <v>1237.225963225757</v>
+        <v>1240.311902121682</v>
       </c>
       <c r="X12" t="n">
-        <v>1060.89998136465</v>
+        <v>1063.985920260575</v>
       </c>
       <c r="Y12" t="n">
-        <v>901.4980217284798</v>
+        <v>904.5839606244048</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>439.1165231084739</v>
+        <v>340.2279089489401</v>
       </c>
       <c r="C13" t="n">
-        <v>305.9229934994094</v>
+        <v>340.2279089489401</v>
       </c>
       <c r="D13" t="n">
-        <v>184.3281916515385</v>
+        <v>216.7168707242952</v>
       </c>
       <c r="E13" t="n">
-        <v>184.3281916515385</v>
+        <v>216.7168707242952</v>
       </c>
       <c r="F13" t="n">
-        <v>184.3281916515385</v>
+        <v>216.7168707242952</v>
       </c>
       <c r="G13" t="n">
-        <v>184.3281916515385</v>
+        <v>85.45008610228372</v>
       </c>
       <c r="H13" t="n">
-        <v>160.8103502728135</v>
+        <v>85.45008610228372</v>
       </c>
       <c r="I13" t="n">
-        <v>82.36414720635868</v>
+        <v>85.45008610228372</v>
       </c>
       <c r="J13" t="n">
-        <v>133.5923325684868</v>
+        <v>134.8001681915356</v>
       </c>
       <c r="K13" t="n">
-        <v>325.2902962476424</v>
+        <v>324.620028597815</v>
       </c>
       <c r="L13" t="n">
-        <v>622.3330324846206</v>
+        <v>619.784661561917</v>
       </c>
       <c r="M13" t="n">
-        <v>948.7427248820316</v>
+        <v>944.3162506864517</v>
       </c>
       <c r="N13" t="n">
-        <v>1266.7271432332</v>
+        <v>1260.422565764743</v>
       </c>
       <c r="O13" t="n">
-        <v>1563.433389516591</v>
+        <v>1555.250708775259</v>
       </c>
       <c r="P13" t="n">
-        <v>1806.254465723121</v>
+        <v>1796.193681708913</v>
       </c>
       <c r="Q13" t="n">
-        <v>1908.92813148255</v>
+        <v>1896.989244195465</v>
       </c>
       <c r="R13" t="n">
-        <v>1861.555255987168</v>
+        <v>1847.70013232331</v>
       </c>
       <c r="S13" t="n">
-        <v>1713.063330696298</v>
+        <v>1697.291970655665</v>
       </c>
       <c r="T13" t="n">
-        <v>1511.414434502219</v>
+        <v>1493.726838084812</v>
       </c>
       <c r="U13" t="n">
-        <v>1266.516129877562</v>
+        <v>1246.912297083381</v>
       </c>
       <c r="V13" t="n">
-        <v>1030.530227646303</v>
+        <v>1009.010158475348</v>
       </c>
       <c r="W13" t="n">
-        <v>789.3604059843964</v>
+        <v>765.9241004366676</v>
       </c>
       <c r="X13" t="n">
-        <v>588.9163866732993</v>
+        <v>563.563844748796</v>
       </c>
       <c r="Y13" t="n">
-        <v>588.9163866732993</v>
+        <v>374.8117525900058</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2273.012939687287</v>
+        <v>2289.51253322063</v>
       </c>
       <c r="C14" t="n">
-        <v>1900.788191829776</v>
+        <v>1915.371548986345</v>
       </c>
       <c r="D14" t="n">
-        <v>1534.224104752056</v>
+        <v>1546.891225531851</v>
       </c>
       <c r="E14" t="n">
-        <v>1157.783732098172</v>
+        <v>1168.534616501192</v>
       </c>
       <c r="F14" t="n">
-        <v>774.6531628810783</v>
+        <v>783.4878109073251</v>
       </c>
       <c r="G14" t="n">
-        <v>403.8247216031295</v>
+        <v>410.7431332526023</v>
       </c>
       <c r="H14" t="n">
-        <v>130.8160670600665</v>
+        <v>135.8182423327655</v>
       </c>
       <c r="I14" t="n">
-        <v>82.36414720635868</v>
+        <v>85.45008610228372</v>
       </c>
       <c r="J14" t="n">
-        <v>336.549618674113</v>
+        <v>339.635557570038</v>
       </c>
       <c r="K14" t="n">
-        <v>874.7091197831526</v>
+        <v>877.7950586790776</v>
       </c>
       <c r="L14" t="n">
-        <v>1587.300519595391</v>
+        <v>1590.386458491316</v>
       </c>
       <c r="M14" t="n">
-        <v>2363.619110587144</v>
+        <v>2366.70504948307</v>
       </c>
       <c r="N14" t="n">
-        <v>3116.800127225762</v>
+        <v>3119.886066121688</v>
       </c>
       <c r="O14" t="n">
-        <v>3227.333009913926</v>
+        <v>3381.629954710177</v>
       </c>
       <c r="P14" t="n">
-        <v>3756.489707833077</v>
+        <v>3910.786652629329</v>
       </c>
       <c r="Q14" t="n">
-        <v>4077.650714628369</v>
+        <v>4231.947659424621</v>
       </c>
       <c r="R14" t="n">
-        <v>4118.207360317934</v>
+        <v>4272.504305114186</v>
       </c>
       <c r="S14" t="n">
-        <v>4118.207360317934</v>
+        <v>4173.206836360731</v>
       </c>
       <c r="T14" t="n">
-        <v>4028.91283161699</v>
+        <v>4173.206836360731</v>
       </c>
       <c r="U14" t="n">
-        <v>4028.91283161699</v>
+        <v>3952.129951072687</v>
       </c>
       <c r="V14" t="n">
-        <v>3716.97511978269</v>
+        <v>3741.139658823129</v>
       </c>
       <c r="W14" t="n">
-        <v>3371.114661747078</v>
+        <v>3393.362964410742</v>
       </c>
       <c r="X14" t="n">
-        <v>3008.371106745249</v>
+        <v>3028.70317303214</v>
       </c>
       <c r="Y14" t="n">
-        <v>2645.334276522558</v>
+        <v>2663.750106432675</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>761.1949890928931</v>
+        <v>764.2809279888181</v>
       </c>
       <c r="C15" t="n">
-        <v>627.1999178418388</v>
+        <v>630.2858567377638</v>
       </c>
       <c r="D15" t="n">
-        <v>510.3027600612312</v>
+        <v>513.3886989571562</v>
       </c>
       <c r="E15" t="n">
-        <v>389.8099440535592</v>
+        <v>392.8958829494842</v>
       </c>
       <c r="F15" t="n">
-        <v>280.8500642360638</v>
+        <v>283.9360031319888</v>
       </c>
       <c r="G15" t="n">
-        <v>173.8599515504025</v>
+        <v>176.9458904463275</v>
       </c>
       <c r="H15" t="n">
-        <v>103.1127385861185</v>
+        <v>106.1986774820435</v>
       </c>
       <c r="I15" t="n">
-        <v>82.36414720635868</v>
+        <v>85.45008610228372</v>
       </c>
       <c r="J15" t="n">
-        <v>275.1770047689919</v>
+        <v>85.45008610228372</v>
       </c>
       <c r="K15" t="n">
-        <v>730.9832610342906</v>
+        <v>85.45008610228372</v>
       </c>
       <c r="L15" t="n">
-        <v>1187.743466521715</v>
+        <v>746.538258021572</v>
       </c>
       <c r="M15" t="n">
-        <v>1187.743466521715</v>
+        <v>1589.515338716139</v>
       </c>
       <c r="N15" t="n">
-        <v>1187.743466521715</v>
+        <v>1782.0948172688</v>
       </c>
       <c r="O15" t="n">
-        <v>1187.743466521715</v>
+        <v>1782.0948172688</v>
       </c>
       <c r="P15" t="n">
-        <v>1749.449359010245</v>
+        <v>1782.0948172688</v>
       </c>
       <c r="Q15" t="n">
-        <v>2099.293823694229</v>
+        <v>2131.939281952784</v>
       </c>
       <c r="R15" t="n">
-        <v>2128.853343056859</v>
+        <v>2131.939281952784</v>
       </c>
       <c r="S15" t="n">
-        <v>2020.863333171168</v>
+        <v>2023.949272067093</v>
       </c>
       <c r="T15" t="n">
-        <v>1861.521469358176</v>
+        <v>1864.607408254101</v>
       </c>
       <c r="U15" t="n">
-        <v>1664.170658496394</v>
+        <v>1667.25659739232</v>
       </c>
       <c r="V15" t="n">
-        <v>1450.459131489428</v>
+        <v>1453.545070385353</v>
       </c>
       <c r="W15" t="n">
-        <v>1237.225963225757</v>
+        <v>1240.311902121682</v>
       </c>
       <c r="X15" t="n">
-        <v>1060.89998136465</v>
+        <v>1063.985920260575</v>
       </c>
       <c r="Y15" t="n">
-        <v>901.4980217284798</v>
+        <v>904.5839606244048</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>784.8042958550911</v>
+        <v>223.0956526484065</v>
       </c>
       <c r="C16" t="n">
-        <v>651.6107662460266</v>
+        <v>208.9611243269287</v>
       </c>
       <c r="D16" t="n">
-        <v>651.6107662460266</v>
+        <v>85.45008610228372</v>
       </c>
       <c r="E16" t="n">
-        <v>528.5997939435651</v>
+        <v>85.45008610228372</v>
       </c>
       <c r="F16" t="n">
-        <v>401.8685108833754</v>
+        <v>85.45008610228372</v>
       </c>
       <c r="G16" t="n">
-        <v>272.5179626381378</v>
+        <v>85.45008610228372</v>
       </c>
       <c r="H16" t="n">
-        <v>160.8103502728135</v>
+        <v>85.45008610228372</v>
       </c>
       <c r="I16" t="n">
-        <v>82.36414720635868</v>
+        <v>85.45008610228372</v>
       </c>
       <c r="J16" t="n">
-        <v>133.5923325684868</v>
+        <v>134.8001681915357</v>
       </c>
       <c r="K16" t="n">
-        <v>325.2902962476423</v>
+        <v>324.6200285978151</v>
       </c>
       <c r="L16" t="n">
-        <v>622.3330324846204</v>
+        <v>619.7846615619171</v>
       </c>
       <c r="M16" t="n">
-        <v>948.7427248820312</v>
+        <v>944.3162506864518</v>
       </c>
       <c r="N16" t="n">
-        <v>1266.727143233199</v>
+        <v>1260.422565764743</v>
       </c>
       <c r="O16" t="n">
-        <v>1563.433389516591</v>
+        <v>1555.250708775259</v>
       </c>
       <c r="P16" t="n">
-        <v>1806.254465723121</v>
+        <v>1796.193681708913</v>
       </c>
       <c r="Q16" t="n">
-        <v>1908.928131482549</v>
+        <v>1896.989244195465</v>
       </c>
       <c r="R16" t="n">
-        <v>1908.928131482549</v>
+        <v>1847.70013232331</v>
       </c>
       <c r="S16" t="n">
-        <v>1760.436206191678</v>
+        <v>1697.291970655665</v>
       </c>
       <c r="T16" t="n">
-        <v>1558.7873099976</v>
+        <v>1493.726838084812</v>
       </c>
       <c r="U16" t="n">
-        <v>1313.889005372943</v>
+        <v>1246.912297083381</v>
       </c>
       <c r="V16" t="n">
-        <v>1313.889005372943</v>
+        <v>1009.010158475348</v>
       </c>
       <c r="W16" t="n">
-        <v>1313.889005372943</v>
+        <v>765.9241004366676</v>
       </c>
       <c r="X16" t="n">
-        <v>1121.440015201933</v>
+        <v>563.563844748796</v>
       </c>
       <c r="Y16" t="n">
-        <v>934.6041594199165</v>
+        <v>374.8117525900058</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2080.954409242187</v>
+        <v>2154.605484224931</v>
       </c>
       <c r="C17" t="n">
-        <v>1736.166594305405</v>
+        <v>1799.736935561461</v>
       </c>
       <c r="D17" t="n">
-        <v>1397.039440148413</v>
+        <v>1450.52904767778</v>
       </c>
       <c r="E17" t="n">
-        <v>1048.036000415257</v>
+        <v>1091.444874217936</v>
       </c>
       <c r="F17" t="n">
-        <v>692.3423641188923</v>
+        <v>725.6705041948831</v>
       </c>
       <c r="G17" t="n">
-        <v>348.9508557616721</v>
+        <v>372.1982621109744</v>
       </c>
       <c r="H17" t="n">
-        <v>103.3791341393379</v>
+        <v>116.5458067619514</v>
       </c>
       <c r="I17" t="n">
-        <v>82.36414720635868</v>
+        <v>85.45008610228372</v>
       </c>
       <c r="J17" t="n">
-        <v>82.36414720635868</v>
+        <v>339.635557570038</v>
       </c>
       <c r="K17" t="n">
-        <v>620.5236483153982</v>
+        <v>877.7950586790776</v>
       </c>
       <c r="L17" t="n">
-        <v>1333.115048127636</v>
+        <v>1590.386458491316</v>
       </c>
       <c r="M17" t="n">
-        <v>2109.43363911939</v>
+        <v>2366.70504948307</v>
       </c>
       <c r="N17" t="n">
-        <v>2862.614655758008</v>
+        <v>2737.999098293072</v>
       </c>
       <c r="O17" t="n">
-        <v>3506.245512175113</v>
+        <v>3381.629954710177</v>
       </c>
       <c r="P17" t="n">
-        <v>4035.402210094265</v>
+        <v>3910.786652629329</v>
       </c>
       <c r="Q17" t="n">
-        <v>4118.207360317934</v>
+        <v>4231.947659424621</v>
       </c>
       <c r="R17" t="n">
-        <v>4118.207360317934</v>
+        <v>4272.504305114186</v>
       </c>
       <c r="S17" t="n">
-        <v>4048.263060861982</v>
+        <v>4192.479271931546</v>
       </c>
       <c r="T17" t="n">
-        <v>3891.393352558789</v>
+        <v>4025.528829901663</v>
       </c>
       <c r="U17" t="n">
-        <v>3699.669636568246</v>
+        <v>3823.724380184433</v>
       </c>
       <c r="V17" t="n">
-        <v>3415.168857654675</v>
+        <v>3529.142867544173</v>
       </c>
       <c r="W17" t="n">
-        <v>3096.745332539791</v>
+        <v>3200.638608702601</v>
       </c>
       <c r="X17" t="n">
-        <v>2761.438710458691</v>
+        <v>2855.251252894812</v>
       </c>
       <c r="Y17" t="n">
-        <v>2425.838813156729</v>
+        <v>2509.570621866162</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>761.1949890928931</v>
+        <v>764.2809279888181</v>
       </c>
       <c r="C18" t="n">
-        <v>627.1999178418388</v>
+        <v>630.2858567377638</v>
       </c>
       <c r="D18" t="n">
-        <v>510.3027600612312</v>
+        <v>513.3886989571562</v>
       </c>
       <c r="E18" t="n">
-        <v>389.8099440535592</v>
+        <v>392.8958829494842</v>
       </c>
       <c r="F18" t="n">
-        <v>280.8500642360638</v>
+        <v>283.9360031319888</v>
       </c>
       <c r="G18" t="n">
-        <v>173.8599515504025</v>
+        <v>176.9458904463275</v>
       </c>
       <c r="H18" t="n">
-        <v>103.1127385861185</v>
+        <v>106.1986774820435</v>
       </c>
       <c r="I18" t="n">
-        <v>82.36414720635868</v>
+        <v>85.45008610228372</v>
       </c>
       <c r="J18" t="n">
-        <v>82.36414720635868</v>
+        <v>85.45008610228372</v>
       </c>
       <c r="K18" t="n">
-        <v>538.1704034716574</v>
+        <v>85.45008610228372</v>
       </c>
       <c r="L18" t="n">
-        <v>538.1704034716574</v>
+        <v>746.538258021572</v>
       </c>
       <c r="M18" t="n">
-        <v>538.1704034716574</v>
+        <v>1048.578207360276</v>
       </c>
       <c r="N18" t="n">
-        <v>863.1903600224343</v>
+        <v>1048.578207360276</v>
       </c>
       <c r="O18" t="n">
-        <v>1567.147450568329</v>
+        <v>1752.53529790617</v>
       </c>
       <c r="P18" t="n">
-        <v>2128.853343056859</v>
+        <v>1752.53529790617</v>
       </c>
       <c r="Q18" t="n">
-        <v>2128.853343056859</v>
+        <v>2102.379762590154</v>
       </c>
       <c r="R18" t="n">
-        <v>2128.853343056859</v>
+        <v>2131.939281952784</v>
       </c>
       <c r="S18" t="n">
-        <v>2020.863333171168</v>
+        <v>2023.949272067093</v>
       </c>
       <c r="T18" t="n">
-        <v>1861.521469358176</v>
+        <v>1864.607408254101</v>
       </c>
       <c r="U18" t="n">
-        <v>1664.170658496394</v>
+        <v>1667.25659739232</v>
       </c>
       <c r="V18" t="n">
-        <v>1450.459131489428</v>
+        <v>1453.545070385353</v>
       </c>
       <c r="W18" t="n">
-        <v>1237.225963225757</v>
+        <v>1240.311902121682</v>
       </c>
       <c r="X18" t="n">
-        <v>1060.89998136465</v>
+        <v>1063.985920260575</v>
       </c>
       <c r="Y18" t="n">
-        <v>901.4980217284798</v>
+        <v>904.5839606244048</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>714.3405672578616</v>
+        <v>547.6588856093726</v>
       </c>
       <c r="C19" t="n">
-        <v>608.5839705695257</v>
+        <v>431.8215551943483</v>
       </c>
       <c r="D19" t="n">
-        <v>514.4261016423836</v>
+        <v>327.5829525405175</v>
       </c>
       <c r="E19" t="n">
-        <v>418.8520622606509</v>
+        <v>289.1765831397175</v>
       </c>
       <c r="F19" t="n">
-        <v>319.5577121211895</v>
+        <v>179.8014992735679</v>
       </c>
       <c r="G19" t="n">
-        <v>217.6440967966807</v>
+        <v>179.8014992735679</v>
       </c>
       <c r="H19" t="n">
-        <v>133.3734173520849</v>
+        <v>85.45008610228372</v>
       </c>
       <c r="I19" t="n">
-        <v>82.36414720635868</v>
+        <v>85.45008610228372</v>
       </c>
       <c r="J19" t="n">
-        <v>160.4832705240928</v>
+        <v>153.6890822944906</v>
       </c>
       <c r="K19" t="n">
-        <v>379.0721721588544</v>
+        <v>362.3978568037249</v>
       </c>
       <c r="L19" t="n">
-        <v>703.0058463514385</v>
+        <v>676.4514038707817</v>
       </c>
       <c r="M19" t="n">
-        <v>1056.306476704455</v>
+        <v>1019.871907098271</v>
       </c>
       <c r="N19" t="n">
-        <v>1401.181833011229</v>
+        <v>1354.867136279518</v>
       </c>
       <c r="O19" t="n">
-        <v>1724.779017250227</v>
+        <v>1668.584193392988</v>
       </c>
       <c r="P19" t="n">
-        <v>1994.491031412363</v>
+        <v>1928.416080429597</v>
       </c>
       <c r="Q19" t="n">
-        <v>2124.055635127397</v>
+        <v>2048.100557019104</v>
       </c>
       <c r="R19" t="n">
-        <v>2104.119692552745</v>
+        <v>2018.083880717763</v>
       </c>
       <c r="S19" t="n">
-        <v>1983.064700182602</v>
+        <v>1886.948154620932</v>
       </c>
       <c r="T19" t="n">
-        <v>1808.852736909252</v>
+        <v>1702.655457620893</v>
       </c>
       <c r="U19" t="n">
-        <v>1591.391365205324</v>
+        <v>1475.113352190277</v>
       </c>
       <c r="V19" t="n">
-        <v>1382.842395894793</v>
+        <v>1256.483649153058</v>
       </c>
       <c r="W19" t="n">
-        <v>1169.109507153615</v>
+        <v>1032.670026685191</v>
       </c>
       <c r="X19" t="n">
-        <v>996.1024207632461</v>
+        <v>849.582206568134</v>
       </c>
       <c r="Y19" t="n">
-        <v>836.7034979019584</v>
+        <v>680.1025499801578</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2080.954409242187</v>
+        <v>2154.605484224932</v>
       </c>
       <c r="C20" t="n">
-        <v>1736.166594305405</v>
+        <v>1799.736935561461</v>
       </c>
       <c r="D20" t="n">
-        <v>1397.039440148413</v>
+        <v>1450.52904767778</v>
       </c>
       <c r="E20" t="n">
-        <v>1048.036000415258</v>
+        <v>1091.444874217936</v>
       </c>
       <c r="F20" t="n">
-        <v>692.3423641188926</v>
+        <v>725.6705041948831</v>
       </c>
       <c r="G20" t="n">
-        <v>348.9508557616724</v>
+        <v>372.1982621109744</v>
       </c>
       <c r="H20" t="n">
-        <v>103.3791341393379</v>
+        <v>116.5458067619514</v>
       </c>
       <c r="I20" t="n">
-        <v>82.36414720635868</v>
+        <v>85.45008610228372</v>
       </c>
       <c r="J20" t="n">
-        <v>332.6083428643229</v>
+        <v>339.635557570038</v>
       </c>
       <c r="K20" t="n">
-        <v>870.7678439733625</v>
+        <v>877.7950586790776</v>
       </c>
       <c r="L20" t="n">
-        <v>1583.3592437856</v>
+        <v>1590.386458491316</v>
       </c>
       <c r="M20" t="n">
-        <v>2359.677834777354</v>
+        <v>2366.70504948307</v>
       </c>
       <c r="N20" t="n">
-        <v>3112.858851415972</v>
+        <v>3119.886066121688</v>
       </c>
       <c r="O20" t="n">
-        <v>3756.489707833077</v>
+        <v>3763.516922538793</v>
       </c>
       <c r="P20" t="n">
-        <v>3756.489707833077</v>
+        <v>3910.786652629329</v>
       </c>
       <c r="Q20" t="n">
-        <v>4077.650714628369</v>
+        <v>4231.947659424621</v>
       </c>
       <c r="R20" t="n">
-        <v>4118.207360317934</v>
+        <v>4272.504305114186</v>
       </c>
       <c r="S20" t="n">
-        <v>4048.263060861982</v>
+        <v>4192.479271931546</v>
       </c>
       <c r="T20" t="n">
-        <v>3891.393352558789</v>
+        <v>4025.528829901663</v>
       </c>
       <c r="U20" t="n">
-        <v>3699.669636568247</v>
+        <v>3823.724380184433</v>
       </c>
       <c r="V20" t="n">
-        <v>3415.168857654676</v>
+        <v>3529.142867544173</v>
       </c>
       <c r="W20" t="n">
-        <v>3096.745332539792</v>
+        <v>3200.6386087026</v>
       </c>
       <c r="X20" t="n">
-        <v>2761.438710458692</v>
+        <v>2855.251252894812</v>
       </c>
       <c r="Y20" t="n">
-        <v>2425.83881315673</v>
+        <v>2509.570621866162</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>761.1949890928931</v>
+        <v>764.2809279888181</v>
       </c>
       <c r="C21" t="n">
-        <v>627.1999178418388</v>
+        <v>630.2858567377638</v>
       </c>
       <c r="D21" t="n">
-        <v>510.3027600612312</v>
+        <v>513.3886989571562</v>
       </c>
       <c r="E21" t="n">
-        <v>389.8099440535592</v>
+        <v>392.8958829494842</v>
       </c>
       <c r="F21" t="n">
-        <v>280.8500642360638</v>
+        <v>283.9360031319888</v>
       </c>
       <c r="G21" t="n">
-        <v>173.8599515504025</v>
+        <v>176.9458904463275</v>
       </c>
       <c r="H21" t="n">
-        <v>103.1127385861185</v>
+        <v>106.1986774820435</v>
       </c>
       <c r="I21" t="n">
-        <v>82.36414720635868</v>
+        <v>85.45008610228372</v>
       </c>
       <c r="J21" t="n">
-        <v>275.1770047689919</v>
+        <v>85.45008610228372</v>
       </c>
       <c r="K21" t="n">
-        <v>730.9832610342906</v>
+        <v>85.45008610228372</v>
       </c>
       <c r="L21" t="n">
-        <v>730.9832610342906</v>
+        <v>85.45008610228372</v>
       </c>
       <c r="M21" t="n">
-        <v>730.9832610342906</v>
+        <v>85.45008610228372</v>
       </c>
       <c r="N21" t="n">
-        <v>730.9832610342906</v>
+        <v>959.1081782139016</v>
       </c>
       <c r="O21" t="n">
-        <v>1217.302985884345</v>
+        <v>1663.065268759796</v>
       </c>
       <c r="P21" t="n">
-        <v>1779.008878372875</v>
+        <v>1782.0948172688</v>
       </c>
       <c r="Q21" t="n">
-        <v>2128.853343056859</v>
+        <v>2131.939281952784</v>
       </c>
       <c r="R21" t="n">
-        <v>2128.853343056859</v>
+        <v>2131.939281952784</v>
       </c>
       <c r="S21" t="n">
-        <v>2020.863333171168</v>
+        <v>2023.949272067093</v>
       </c>
       <c r="T21" t="n">
-        <v>1861.521469358176</v>
+        <v>1864.607408254101</v>
       </c>
       <c r="U21" t="n">
-        <v>1664.170658496394</v>
+        <v>1667.25659739232</v>
       </c>
       <c r="V21" t="n">
-        <v>1450.459131489428</v>
+        <v>1453.545070385353</v>
       </c>
       <c r="W21" t="n">
-        <v>1237.225963225757</v>
+        <v>1240.311902121682</v>
       </c>
       <c r="X21" t="n">
-        <v>1060.89998136465</v>
+        <v>1063.985920260575</v>
       </c>
       <c r="Y21" t="n">
-        <v>901.4980217284798</v>
+        <v>904.5839606244048</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>714.3405672578621</v>
+        <v>547.6588856093728</v>
       </c>
       <c r="C22" t="n">
-        <v>608.5839705695262</v>
+        <v>516.7128947818829</v>
       </c>
       <c r="D22" t="n">
-        <v>514.4261016423836</v>
+        <v>412.4742921280521</v>
       </c>
       <c r="E22" t="n">
-        <v>418.8520622606508</v>
+        <v>306.8195190196308</v>
       </c>
       <c r="F22" t="n">
-        <v>319.5577121211897</v>
+        <v>197.4444351534812</v>
       </c>
       <c r="G22" t="n">
-        <v>217.6440967966807</v>
+        <v>85.45008610228372</v>
       </c>
       <c r="H22" t="n">
-        <v>133.3734173520849</v>
+        <v>85.45008610228372</v>
       </c>
       <c r="I22" t="n">
-        <v>82.36414720635868</v>
+        <v>85.45008610228372</v>
       </c>
       <c r="J22" t="n">
-        <v>160.4832705240929</v>
+        <v>153.6890822944906</v>
       </c>
       <c r="K22" t="n">
-        <v>379.0721721588545</v>
+        <v>362.3978568037249</v>
       </c>
       <c r="L22" t="n">
-        <v>703.0058463514388</v>
+        <v>676.4514038707819</v>
       </c>
       <c r="M22" t="n">
-        <v>1056.306476704456</v>
+        <v>1019.871907098271</v>
       </c>
       <c r="N22" t="n">
-        <v>1401.18183301123</v>
+        <v>1354.867136279518</v>
       </c>
       <c r="O22" t="n">
-        <v>1724.779017250228</v>
+        <v>1668.584193392988</v>
       </c>
       <c r="P22" t="n">
-        <v>1994.491031412364</v>
+        <v>1928.416080429597</v>
       </c>
       <c r="Q22" t="n">
-        <v>2124.055635127398</v>
+        <v>2048.100557019104</v>
       </c>
       <c r="R22" t="n">
-        <v>2104.119692552745</v>
+        <v>2018.083880717763</v>
       </c>
       <c r="S22" t="n">
-        <v>1983.064700182603</v>
+        <v>1886.948154620932</v>
       </c>
       <c r="T22" t="n">
-        <v>1808.852736909253</v>
+        <v>1702.655457620893</v>
       </c>
       <c r="U22" t="n">
-        <v>1591.391365205324</v>
+        <v>1475.113352190277</v>
       </c>
       <c r="V22" t="n">
-        <v>1382.842395894794</v>
+        <v>1256.483649153058</v>
       </c>
       <c r="W22" t="n">
-        <v>1169.109507153616</v>
+        <v>1032.670026685191</v>
       </c>
       <c r="X22" t="n">
-        <v>996.1024207632465</v>
+        <v>849.5822065681341</v>
       </c>
       <c r="Y22" t="n">
-        <v>836.7034979019588</v>
+        <v>680.102549980158</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2080.954409242187</v>
+        <v>2154.605484224932</v>
       </c>
       <c r="C23" t="n">
-        <v>1736.166594305405</v>
+        <v>1799.736935561461</v>
       </c>
       <c r="D23" t="n">
-        <v>1397.039440148413</v>
+        <v>1450.52904767778</v>
       </c>
       <c r="E23" t="n">
-        <v>1048.036000415258</v>
+        <v>1091.444874217936</v>
       </c>
       <c r="F23" t="n">
-        <v>692.3423641188926</v>
+        <v>725.6705041948831</v>
       </c>
       <c r="G23" t="n">
-        <v>348.9508557616724</v>
+        <v>372.1982621109744</v>
       </c>
       <c r="H23" t="n">
-        <v>103.3791341393379</v>
+        <v>116.5458067619514</v>
       </c>
       <c r="I23" t="n">
-        <v>82.36414720635868</v>
+        <v>85.45008610228372</v>
       </c>
       <c r="J23" t="n">
-        <v>336.549618674113</v>
+        <v>339.635557570038</v>
       </c>
       <c r="K23" t="n">
-        <v>341.6111460542108</v>
+        <v>877.7950586790776</v>
       </c>
       <c r="L23" t="n">
-        <v>1054.202545866449</v>
+        <v>1529.660497457992</v>
       </c>
       <c r="M23" t="n">
-        <v>1830.521136858203</v>
+        <v>2305.979088449746</v>
       </c>
       <c r="N23" t="n">
-        <v>2583.702153496821</v>
+        <v>3059.160105088364</v>
       </c>
       <c r="O23" t="n">
-        <v>3227.333009913926</v>
+        <v>3702.790961505469</v>
       </c>
       <c r="P23" t="n">
-        <v>3756.489707833077</v>
+        <v>4231.947659424621</v>
       </c>
       <c r="Q23" t="n">
-        <v>4077.650714628369</v>
+        <v>4231.947659424621</v>
       </c>
       <c r="R23" t="n">
-        <v>4118.207360317934</v>
+        <v>4272.504305114186</v>
       </c>
       <c r="S23" t="n">
-        <v>4048.263060861982</v>
+        <v>4192.479271931546</v>
       </c>
       <c r="T23" t="n">
-        <v>3891.393352558789</v>
+        <v>4025.528829901665</v>
       </c>
       <c r="U23" t="n">
-        <v>3699.669636568247</v>
+        <v>3823.724380184434</v>
       </c>
       <c r="V23" t="n">
-        <v>3415.168857654675</v>
+        <v>3529.142867544173</v>
       </c>
       <c r="W23" t="n">
-        <v>3096.745332539791</v>
+        <v>3200.638608702601</v>
       </c>
       <c r="X23" t="n">
-        <v>2761.438710458692</v>
+        <v>2855.251252894813</v>
       </c>
       <c r="Y23" t="n">
-        <v>2425.838813156729</v>
+        <v>2509.570621866162</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>761.1949890928931</v>
+        <v>764.2809279888181</v>
       </c>
       <c r="C24" t="n">
-        <v>627.1999178418388</v>
+        <v>630.2858567377638</v>
       </c>
       <c r="D24" t="n">
-        <v>510.3027600612312</v>
+        <v>513.3886989571562</v>
       </c>
       <c r="E24" t="n">
-        <v>389.8099440535592</v>
+        <v>392.8958829494842</v>
       </c>
       <c r="F24" t="n">
-        <v>280.8500642360638</v>
+        <v>283.9360031319888</v>
       </c>
       <c r="G24" t="n">
-        <v>173.8599515504025</v>
+        <v>176.9458904463275</v>
       </c>
       <c r="H24" t="n">
-        <v>103.1127385861185</v>
+        <v>106.1986774820435</v>
       </c>
       <c r="I24" t="n">
-        <v>82.36414720635868</v>
+        <v>85.45008610228372</v>
       </c>
       <c r="J24" t="n">
-        <v>275.1770047689919</v>
+        <v>85.45008610228372</v>
       </c>
       <c r="K24" t="n">
-        <v>730.9832610342906</v>
+        <v>85.45008610228372</v>
       </c>
       <c r="L24" t="n">
-        <v>1392.071432953579</v>
+        <v>85.45008610228372</v>
       </c>
       <c r="M24" t="n">
-        <v>1749.449359010245</v>
+        <v>317.1713133060225</v>
       </c>
       <c r="N24" t="n">
-        <v>1749.449359010245</v>
+        <v>1190.82940541764</v>
       </c>
       <c r="O24" t="n">
-        <v>1749.449359010245</v>
+        <v>1190.82940541764</v>
       </c>
       <c r="P24" t="n">
-        <v>1749.449359010245</v>
+        <v>1752.53529790617</v>
       </c>
       <c r="Q24" t="n">
-        <v>2099.293823694229</v>
+        <v>2102.379762590154</v>
       </c>
       <c r="R24" t="n">
-        <v>2128.853343056859</v>
+        <v>2131.939281952784</v>
       </c>
       <c r="S24" t="n">
-        <v>2020.863333171168</v>
+        <v>2023.949272067093</v>
       </c>
       <c r="T24" t="n">
-        <v>1861.521469358176</v>
+        <v>1864.607408254101</v>
       </c>
       <c r="U24" t="n">
-        <v>1664.170658496394</v>
+        <v>1667.25659739232</v>
       </c>
       <c r="V24" t="n">
-        <v>1450.459131489428</v>
+        <v>1453.545070385353</v>
       </c>
       <c r="W24" t="n">
-        <v>1237.225963225757</v>
+        <v>1240.311902121682</v>
       </c>
       <c r="X24" t="n">
-        <v>1060.89998136465</v>
+        <v>1063.985920260575</v>
       </c>
       <c r="Y24" t="n">
-        <v>901.4980217284798</v>
+        <v>904.5839606244048</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>714.3405672578622</v>
+        <v>547.6588856093728</v>
       </c>
       <c r="C25" t="n">
-        <v>608.5839705695263</v>
+        <v>431.8215551943484</v>
       </c>
       <c r="D25" t="n">
-        <v>514.4261016423839</v>
+        <v>394.8313562481389</v>
       </c>
       <c r="E25" t="n">
-        <v>418.8520622606509</v>
+        <v>289.1765831397175</v>
       </c>
       <c r="F25" t="n">
-        <v>319.5577121211897</v>
+        <v>179.8014992735679</v>
       </c>
       <c r="G25" t="n">
-        <v>217.6440967966807</v>
+        <v>179.8014992735679</v>
       </c>
       <c r="H25" t="n">
-        <v>133.3734173520849</v>
+        <v>85.45008610228372</v>
       </c>
       <c r="I25" t="n">
-        <v>82.36414720635868</v>
+        <v>85.45008610228372</v>
       </c>
       <c r="J25" t="n">
-        <v>160.483270524093</v>
+        <v>153.6890822944906</v>
       </c>
       <c r="K25" t="n">
-        <v>379.0721721588546</v>
+        <v>362.3978568037249</v>
       </c>
       <c r="L25" t="n">
-        <v>703.0058463514388</v>
+        <v>676.4514038707817</v>
       </c>
       <c r="M25" t="n">
-        <v>1056.306476704456</v>
+        <v>1019.871907098271</v>
       </c>
       <c r="N25" t="n">
-        <v>1401.18183301123</v>
+        <v>1354.867136279518</v>
       </c>
       <c r="O25" t="n">
-        <v>1724.779017250228</v>
+        <v>1668.584193392988</v>
       </c>
       <c r="P25" t="n">
-        <v>1994.491031412364</v>
+        <v>1928.416080429597</v>
       </c>
       <c r="Q25" t="n">
-        <v>2124.055635127398</v>
+        <v>2048.100557019104</v>
       </c>
       <c r="R25" t="n">
-        <v>2104.119692552745</v>
+        <v>2018.083880717763</v>
       </c>
       <c r="S25" t="n">
-        <v>1983.064700182603</v>
+        <v>1886.948154620932</v>
       </c>
       <c r="T25" t="n">
-        <v>1808.852736909253</v>
+        <v>1702.655457620893</v>
       </c>
       <c r="U25" t="n">
-        <v>1591.391365205324</v>
+        <v>1475.113352190277</v>
       </c>
       <c r="V25" t="n">
-        <v>1382.842395894794</v>
+        <v>1256.483649153058</v>
       </c>
       <c r="W25" t="n">
-        <v>1169.109507153616</v>
+        <v>1032.670026685191</v>
       </c>
       <c r="X25" t="n">
-        <v>996.1024207632466</v>
+        <v>849.5822065681341</v>
       </c>
       <c r="Y25" t="n">
-        <v>836.7034979019589</v>
+        <v>680.102549980158</v>
       </c>
     </row>
     <row r="26">
@@ -6209,25 +6209,25 @@
         <v>1585.618315208991</v>
       </c>
       <c r="E26" t="n">
-        <v>1201.075010560572</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F26" t="n">
-        <v>809.8415093489448</v>
+        <v>809.841509348945</v>
       </c>
       <c r="G26" t="n">
-        <v>430.9101360764619</v>
+        <v>430.9101360764621</v>
       </c>
       <c r="H26" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388647</v>
       </c>
       <c r="I26" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="J26" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K26" t="n">
-        <v>885.588670267417</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L26" t="n">
         <v>1598.180070079655</v>
@@ -6239,28 +6239,28 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O26" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P26" t="n">
         <v>4300.467232046283</v>
       </c>
       <c r="Q26" t="n">
-        <v>4621.628238841575</v>
+        <v>4621.628238841574</v>
       </c>
       <c r="R26" t="n">
-        <v>4662.18488453114</v>
+        <v>4662.184884531139</v>
       </c>
       <c r="S26" t="n">
-        <v>4556.700720159925</v>
+        <v>4556.700720159924</v>
       </c>
       <c r="T26" t="n">
-        <v>4364.291146941469</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U26" t="n">
         <v>4137.027566035664</v>
       </c>
       <c r="V26" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206829</v>
       </c>
       <c r="W26" t="n">
         <v>3463.023532176683</v>
@@ -6294,37 +6294,37 @@
         <v>291.7296147203278</v>
       </c>
       <c r="G27" t="n">
-        <v>184.7395020346666</v>
+        <v>184.7395020346665</v>
       </c>
       <c r="H27" t="n">
         <v>113.9922890703826</v>
       </c>
       <c r="I27" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="L27" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="M27" t="n">
-        <v>936.2207783851894</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="N27" t="n">
-        <v>1809.878870496807</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P27" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q27" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R27" t="n">
         <v>2139.732893541123</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>379.7015972963609</v>
+        <v>364.2378931366266</v>
       </c>
       <c r="C28" t="n">
-        <v>238.4051356927621</v>
+        <v>222.9414315330279</v>
       </c>
       <c r="D28" t="n">
-        <v>238.4051356927621</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="E28" t="n">
-        <v>238.4051356927621</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="F28" t="n">
-        <v>238.4051356927621</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="G28" t="n">
-        <v>213.0542420504813</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="H28" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="I28" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="J28" t="n">
-        <v>136.5301994049079</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K28" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L28" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253559</v>
       </c>
       <c r="M28" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749238</v>
       </c>
       <c r="N28" t="n">
-        <v>1237.898275478248</v>
+        <v>1237.898275478249</v>
       </c>
       <c r="O28" t="n">
-        <v>1526.662838113797</v>
+        <v>1526.662838113798</v>
       </c>
       <c r="P28" t="n">
-        <v>1761.542230672484</v>
+        <v>1761.542230672485</v>
       </c>
       <c r="Q28" t="n">
         <v>1856.27421278407</v>
       </c>
       <c r="R28" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S28" t="n">
-        <v>1644.203548008749</v>
+        <v>1723.838284908847</v>
       </c>
       <c r="T28" t="n">
-        <v>1434.451719820137</v>
+        <v>1514.086456720234</v>
       </c>
       <c r="U28" t="n">
-        <v>1434.451719820137</v>
+        <v>1261.085220101043</v>
       </c>
       <c r="V28" t="n">
-        <v>1190.362885594343</v>
+        <v>1016.996385875249</v>
       </c>
       <c r="W28" t="n">
-        <v>941.0901319379024</v>
+        <v>767.7236322188087</v>
       </c>
       <c r="X28" t="n">
-        <v>732.5431806322706</v>
+        <v>559.1766809131769</v>
       </c>
       <c r="Y28" t="n">
-        <v>537.6043928557203</v>
+        <v>364.2378931366266</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2340.61301413329</v>
+        <v>2340.613014133292</v>
       </c>
       <c r="C29" t="n">
-        <v>1960.285334281245</v>
+        <v>1960.285334281247</v>
       </c>
       <c r="D29" t="n">
-        <v>1585.61831520899</v>
+        <v>1585.618315208992</v>
       </c>
       <c r="E29" t="n">
-        <v>1201.075010560572</v>
+        <v>1201.075010560574</v>
       </c>
       <c r="F29" t="n">
-        <v>809.8415093489443</v>
+        <v>809.8415093489461</v>
       </c>
       <c r="G29" t="n">
-        <v>430.9101360764616</v>
+        <v>430.9101360764625</v>
       </c>
       <c r="H29" t="n">
         <v>149.7985495388647</v>
@@ -6491,22 +6491,22 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T29" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U29" t="n">
-        <v>4137.027566035663</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V29" t="n">
-        <v>3816.986922206828</v>
+        <v>3816.986922206831</v>
       </c>
       <c r="W29" t="n">
-        <v>3463.023532176682</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X29" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y29" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="30">
@@ -6540,28 +6540,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K30" t="n">
-        <v>741.8628115185547</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L30" t="n">
-        <v>1402.950983437843</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M30" t="n">
-        <v>1402.950983437843</v>
+        <v>886.6708173828915</v>
       </c>
       <c r="N30" t="n">
-        <v>1402.950983437843</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="O30" t="n">
-        <v>1402.950983437843</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="P30" t="n">
-        <v>1964.656875926373</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q30" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R30" t="n">
         <v>2139.732893541123</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>182.176168167086</v>
+        <v>126.7003606771705</v>
       </c>
       <c r="C31" t="n">
-        <v>179.7928327516117</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D31" t="n">
-        <v>179.7928327516117</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E31" t="n">
-        <v>179.7928327516117</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F31" t="n">
-        <v>179.7928327516117</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G31" t="n">
-        <v>179.7928327516117</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H31" t="n">
-        <v>179.7928327516117</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I31" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>136.5301994049081</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K31" t="n">
-        <v>320.2864794362208</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L31" t="n">
-        <v>609.3875320253562</v>
+        <v>609.3875320253559</v>
       </c>
       <c r="M31" t="n">
-        <v>927.8555407749242</v>
+        <v>927.8555407749238</v>
       </c>
       <c r="N31" t="n">
         <v>1237.898275478249</v>
@@ -6643,28 +6643,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R31" t="n">
-        <v>1856.27421278407</v>
+        <v>1800.798405294155</v>
       </c>
       <c r="S31" t="n">
-        <v>1699.679355498665</v>
+        <v>1644.20354800875</v>
       </c>
       <c r="T31" t="n">
-        <v>1489.927527310052</v>
+        <v>1434.451719820137</v>
       </c>
       <c r="U31" t="n">
-        <v>1236.926290690862</v>
+        <v>1181.450483200946</v>
       </c>
       <c r="V31" t="n">
-        <v>992.8374564650684</v>
+        <v>937.3616489751527</v>
       </c>
       <c r="W31" t="n">
-        <v>743.5647028086275</v>
+        <v>688.0888953187119</v>
       </c>
       <c r="X31" t="n">
-        <v>535.0177515029959</v>
+        <v>479.5419440130802</v>
       </c>
       <c r="Y31" t="n">
-        <v>340.0789637264455</v>
+        <v>284.60315623653</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2080.954409242187</v>
+        <v>2363.584830455601</v>
       </c>
       <c r="C32" t="n">
-        <v>1736.166594305405</v>
+        <v>1953.460239768871</v>
       </c>
       <c r="D32" t="n">
-        <v>1397.039440148413</v>
+        <v>1548.996309861932</v>
       </c>
       <c r="E32" t="n">
-        <v>1048.036000415257</v>
+        <v>1134.656094378829</v>
       </c>
       <c r="F32" t="n">
-        <v>692.3423641188925</v>
+        <v>713.6256823325161</v>
       </c>
       <c r="G32" t="n">
-        <v>348.9508557616723</v>
+        <v>359.8304062459364</v>
       </c>
       <c r="H32" t="n">
-        <v>103.3791341393379</v>
+        <v>114.258684623602</v>
       </c>
       <c r="I32" t="n">
-        <v>82.36414720635868</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J32" t="n">
-        <v>336.549618674113</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K32" t="n">
-        <v>874.7091197831526</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L32" t="n">
-        <v>1587.300519595391</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M32" t="n">
-        <v>1830.521136858203</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N32" t="n">
-        <v>2583.702153496821</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O32" t="n">
-        <v>3227.333009913926</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P32" t="n">
-        <v>3756.489707833077</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q32" t="n">
-        <v>4077.650714628369</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R32" t="n">
-        <v>4118.207360317934</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4048.263060861983</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T32" t="n">
-        <v>3891.393352558789</v>
+        <v>4370.034101022046</v>
       </c>
       <c r="U32" t="n">
-        <v>3699.669636568246</v>
+        <v>4178.310385031504</v>
       </c>
       <c r="V32" t="n">
-        <v>3415.168857654675</v>
+        <v>3893.809606117932</v>
       </c>
       <c r="W32" t="n">
-        <v>3096.745332539791</v>
+        <v>3510.049305253101</v>
       </c>
       <c r="X32" t="n">
-        <v>2761.438710458691</v>
+        <v>3174.742683172001</v>
       </c>
       <c r="Y32" t="n">
-        <v>2425.838813156729</v>
+        <v>2773.806010120091</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>761.1949890928931</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C33" t="n">
-        <v>627.1999178418388</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D33" t="n">
-        <v>510.3027600612312</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E33" t="n">
-        <v>389.8099440535592</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F33" t="n">
-        <v>280.8500642360638</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G33" t="n">
-        <v>173.8599515504025</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H33" t="n">
-        <v>103.1127385861185</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I33" t="n">
-        <v>82.36414720635868</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>275.1770047689919</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K33" t="n">
-        <v>730.9832610342906</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L33" t="n">
-        <v>730.9832610342906</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="M33" t="n">
-        <v>730.9832610342906</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="N33" t="n">
-        <v>730.9832610342906</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="O33" t="n">
-        <v>1187.743466521715</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P33" t="n">
-        <v>1749.449359010245</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q33" t="n">
-        <v>2099.293823694229</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R33" t="n">
-        <v>2128.853343056859</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S33" t="n">
-        <v>2020.863333171168</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T33" t="n">
-        <v>1861.521469358176</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U33" t="n">
-        <v>1664.170658496394</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V33" t="n">
-        <v>1450.459131489428</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W33" t="n">
-        <v>1237.225963225757</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X33" t="n">
-        <v>1060.89998136465</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y33" t="n">
-        <v>901.4980217284798</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>714.3405672578621</v>
+        <v>725.220117742126</v>
       </c>
       <c r="C34" t="n">
-        <v>608.5839705695262</v>
+        <v>619.4635210537901</v>
       </c>
       <c r="D34" t="n">
-        <v>514.4261016423836</v>
+        <v>525.3056521266478</v>
       </c>
       <c r="E34" t="n">
-        <v>418.8520622606508</v>
+        <v>429.7316127449149</v>
       </c>
       <c r="F34" t="n">
-        <v>319.5577121211897</v>
+        <v>330.4372626054538</v>
       </c>
       <c r="G34" t="n">
-        <v>217.6440967966807</v>
+        <v>228.5236472809448</v>
       </c>
       <c r="H34" t="n">
-        <v>133.3734173520849</v>
+        <v>144.252967836349</v>
       </c>
       <c r="I34" t="n">
-        <v>82.36414720635868</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
-        <v>160.4832705240929</v>
+        <v>171.362821008357</v>
       </c>
       <c r="K34" t="n">
-        <v>379.0721721588545</v>
+        <v>389.9517226431186</v>
       </c>
       <c r="L34" t="n">
-        <v>703.0058463514388</v>
+        <v>713.8853968357027</v>
       </c>
       <c r="M34" t="n">
-        <v>1056.306476704456</v>
+        <v>1067.18602718872</v>
       </c>
       <c r="N34" t="n">
-        <v>1401.18183301123</v>
+        <v>1412.061383495494</v>
       </c>
       <c r="O34" t="n">
-        <v>1724.779017250228</v>
+        <v>1735.658567734491</v>
       </c>
       <c r="P34" t="n">
-        <v>1994.491031412364</v>
+        <v>2005.370581896627</v>
       </c>
       <c r="Q34" t="n">
-        <v>2124.055635127398</v>
+        <v>2134.935185611661</v>
       </c>
       <c r="R34" t="n">
-        <v>2104.119692552745</v>
+        <v>2114.999243037008</v>
       </c>
       <c r="S34" t="n">
-        <v>1983.064700182603</v>
+        <v>1993.944250666867</v>
       </c>
       <c r="T34" t="n">
-        <v>1808.852736909253</v>
+        <v>1819.732287393516</v>
       </c>
       <c r="U34" t="n">
-        <v>1591.391365205324</v>
+        <v>1602.270915689588</v>
       </c>
       <c r="V34" t="n">
-        <v>1382.842395894794</v>
+        <v>1393.721946379057</v>
       </c>
       <c r="W34" t="n">
-        <v>1169.109507153616</v>
+        <v>1179.98905763788</v>
       </c>
       <c r="X34" t="n">
-        <v>996.1024207632465</v>
+        <v>1006.98197124751</v>
       </c>
       <c r="Y34" t="n">
-        <v>836.7034979019588</v>
+        <v>847.5830483862228</v>
       </c>
     </row>
     <row r="35">
@@ -6932,52 +6932,52 @@
         <v>103.3791341393379</v>
       </c>
       <c r="I35" t="n">
-        <v>82.36414720635871</v>
+        <v>82.36414720635868</v>
       </c>
       <c r="J35" t="n">
-        <v>82.36414720635871</v>
+        <v>336.549618674113</v>
       </c>
       <c r="K35" t="n">
-        <v>341.6111460542118</v>
+        <v>874.7091197831526</v>
       </c>
       <c r="L35" t="n">
-        <v>1054.20254586645</v>
+        <v>1587.300519595391</v>
       </c>
       <c r="M35" t="n">
-        <v>1830.521136858204</v>
+        <v>2363.619110587144</v>
       </c>
       <c r="N35" t="n">
-        <v>2583.702153496822</v>
+        <v>2945.419805981678</v>
       </c>
       <c r="O35" t="n">
-        <v>3227.333009913927</v>
+        <v>3589.050662398783</v>
       </c>
       <c r="P35" t="n">
-        <v>3756.489707833078</v>
+        <v>4118.207360317934</v>
       </c>
       <c r="Q35" t="n">
-        <v>4077.65071462837</v>
+        <v>4118.207360317934</v>
       </c>
       <c r="R35" t="n">
-        <v>4118.207360317935</v>
+        <v>4118.207360317934</v>
       </c>
       <c r="S35" t="n">
-        <v>4048.263060861983</v>
+        <v>4048.263060861982</v>
       </c>
       <c r="T35" t="n">
-        <v>3891.39335255879</v>
+        <v>3891.393352558789</v>
       </c>
       <c r="U35" t="n">
-        <v>3699.669636568247</v>
+        <v>3699.669636568246</v>
       </c>
       <c r="V35" t="n">
-        <v>3415.168857654676</v>
+        <v>3415.168857654675</v>
       </c>
       <c r="W35" t="n">
-        <v>3096.745332539792</v>
+        <v>3096.745332539791</v>
       </c>
       <c r="X35" t="n">
-        <v>2761.438710458692</v>
+        <v>2761.438710458691</v>
       </c>
       <c r="Y35" t="n">
         <v>2425.838813156729</v>
@@ -7011,28 +7011,28 @@
         <v>103.1127385861185</v>
       </c>
       <c r="I36" t="n">
-        <v>82.36414720635871</v>
+        <v>82.36414720635868</v>
       </c>
       <c r="J36" t="n">
-        <v>82.36414720635871</v>
+        <v>275.1770047689919</v>
       </c>
       <c r="K36" t="n">
-        <v>538.1704034716574</v>
+        <v>275.1770047689919</v>
       </c>
       <c r="L36" t="n">
-        <v>694.610850511132</v>
+        <v>275.1770047689919</v>
       </c>
       <c r="M36" t="n">
-        <v>1537.587931205699</v>
+        <v>275.1770047689919</v>
       </c>
       <c r="N36" t="n">
-        <v>1537.587931205699</v>
+        <v>1148.83509688061</v>
       </c>
       <c r="O36" t="n">
-        <v>1537.587931205699</v>
+        <v>1187.743466521715</v>
       </c>
       <c r="P36" t="n">
-        <v>2099.293823694229</v>
+        <v>1749.449359010245</v>
       </c>
       <c r="Q36" t="n">
         <v>2099.293823694229</v>
@@ -7081,31 +7081,31 @@
         <v>418.8520622606508</v>
       </c>
       <c r="F37" t="n">
-        <v>319.5577121211897</v>
+        <v>319.5577121211896</v>
       </c>
       <c r="G37" t="n">
         <v>217.6440967966807</v>
       </c>
       <c r="H37" t="n">
-        <v>133.373417352085</v>
+        <v>133.3734173520849</v>
       </c>
       <c r="I37" t="n">
-        <v>82.36414720635871</v>
+        <v>82.36414720635868</v>
       </c>
       <c r="J37" t="n">
-        <v>160.4832705240925</v>
+        <v>160.4832705240929</v>
       </c>
       <c r="K37" t="n">
-        <v>379.0721721588541</v>
+        <v>379.0721721588545</v>
       </c>
       <c r="L37" t="n">
-        <v>703.0058463514383</v>
+        <v>703.0058463514387</v>
       </c>
       <c r="M37" t="n">
-        <v>1056.306476704455</v>
+        <v>1056.306476704456</v>
       </c>
       <c r="N37" t="n">
-        <v>1401.181833011229</v>
+        <v>1401.18183301123</v>
       </c>
       <c r="O37" t="n">
         <v>1724.779017250227</v>
@@ -7157,13 +7157,13 @@
         <v>1397.039440148413</v>
       </c>
       <c r="E38" t="n">
-        <v>1048.036000415257</v>
+        <v>1048.036000415258</v>
       </c>
       <c r="F38" t="n">
-        <v>692.3423641188925</v>
+        <v>692.3423641188929</v>
       </c>
       <c r="G38" t="n">
-        <v>348.9508557616723</v>
+        <v>348.9508557616726</v>
       </c>
       <c r="H38" t="n">
         <v>103.3791341393379</v>
@@ -7178,13 +7178,13 @@
         <v>874.7091197831526</v>
       </c>
       <c r="L38" t="n">
-        <v>1054.202545866449</v>
+        <v>1587.300519595391</v>
       </c>
       <c r="M38" t="n">
-        <v>1830.521136858203</v>
+        <v>2363.619110587144</v>
       </c>
       <c r="N38" t="n">
-        <v>2583.702153496821</v>
+        <v>3116.800127225762</v>
       </c>
       <c r="O38" t="n">
         <v>3227.333009913926</v>
@@ -7254,22 +7254,22 @@
         <v>82.36414720635868</v>
       </c>
       <c r="K39" t="n">
-        <v>538.1704034716574</v>
+        <v>82.36414720635868</v>
       </c>
       <c r="L39" t="n">
-        <v>1199.258575390946</v>
+        <v>743.4523191256469</v>
       </c>
       <c r="M39" t="n">
-        <v>1537.587931205699</v>
+        <v>1045.492268464351</v>
       </c>
       <c r="N39" t="n">
-        <v>1537.587931205699</v>
+        <v>1045.492268464351</v>
       </c>
       <c r="O39" t="n">
-        <v>1537.587931205699</v>
+        <v>1749.449359010245</v>
       </c>
       <c r="P39" t="n">
-        <v>2099.293823694229</v>
+        <v>1749.449359010245</v>
       </c>
       <c r="Q39" t="n">
         <v>2099.293823694229</v>
@@ -7306,7 +7306,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>714.3405672578621</v>
+        <v>714.3405672578623</v>
       </c>
       <c r="C40" t="n">
         <v>608.5839705695262</v>
@@ -7318,25 +7318,25 @@
         <v>418.8520622606508</v>
       </c>
       <c r="F40" t="n">
-        <v>319.5577121211896</v>
+        <v>319.5577121211897</v>
       </c>
       <c r="G40" t="n">
         <v>217.6440967966807</v>
       </c>
       <c r="H40" t="n">
-        <v>133.3734173520849</v>
+        <v>133.373417352085</v>
       </c>
       <c r="I40" t="n">
         <v>82.36414720635868</v>
       </c>
       <c r="J40" t="n">
-        <v>160.4832705240925</v>
+        <v>160.4832705240927</v>
       </c>
       <c r="K40" t="n">
-        <v>379.0721721588541</v>
+        <v>379.0721721588544</v>
       </c>
       <c r="L40" t="n">
-        <v>703.0058463514383</v>
+        <v>703.0058463514385</v>
       </c>
       <c r="M40" t="n">
         <v>1056.306476704455</v>
@@ -7372,10 +7372,10 @@
         <v>1169.109507153616</v>
       </c>
       <c r="X40" t="n">
-        <v>996.1024207632465</v>
+        <v>996.1024207632466</v>
       </c>
       <c r="Y40" t="n">
-        <v>836.7034979019588</v>
+        <v>836.7034979019589</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2080.954409242187</v>
+        <v>2080.954409242188</v>
       </c>
       <c r="C41" t="n">
-        <v>1736.166594305405</v>
+        <v>1736.166594305406</v>
       </c>
       <c r="D41" t="n">
-        <v>1397.039440148413</v>
+        <v>1397.039440148414</v>
       </c>
       <c r="E41" t="n">
-        <v>1048.036000415257</v>
+        <v>1048.036000415258</v>
       </c>
       <c r="F41" t="n">
-        <v>692.3423641188925</v>
+        <v>692.342364118893</v>
       </c>
       <c r="G41" t="n">
-        <v>348.9508557616723</v>
+        <v>348.9508557616728</v>
       </c>
       <c r="H41" t="n">
         <v>103.3791341393379</v>
@@ -7415,28 +7415,28 @@
         <v>874.7091197831526</v>
       </c>
       <c r="L41" t="n">
-        <v>1587.300519595391</v>
+        <v>1094.759191556014</v>
       </c>
       <c r="M41" t="n">
-        <v>2363.619110587144</v>
+        <v>1871.077782547768</v>
       </c>
       <c r="N41" t="n">
-        <v>3116.800127225762</v>
+        <v>2624.258799186386</v>
       </c>
       <c r="O41" t="n">
-        <v>3760.430983642867</v>
+        <v>3267.889655603491</v>
       </c>
       <c r="P41" t="n">
-        <v>4077.650714628369</v>
+        <v>3797.046353522642</v>
       </c>
       <c r="Q41" t="n">
-        <v>4077.650714628369</v>
+        <v>4118.207360317934</v>
       </c>
       <c r="R41" t="n">
         <v>4118.207360317934</v>
       </c>
       <c r="S41" t="n">
-        <v>4048.263060861983</v>
+        <v>4048.263060861982</v>
       </c>
       <c r="T41" t="n">
         <v>3891.393352558789</v>
@@ -7445,16 +7445,16 @@
         <v>3699.669636568247</v>
       </c>
       <c r="V41" t="n">
-        <v>3415.168857654675</v>
+        <v>3415.168857654676</v>
       </c>
       <c r="W41" t="n">
-        <v>3096.745332539791</v>
+        <v>3096.745332539792</v>
       </c>
       <c r="X41" t="n">
         <v>2761.438710458692</v>
       </c>
       <c r="Y41" t="n">
-        <v>2425.838813156729</v>
+        <v>2425.83881315673</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7488,25 @@
         <v>82.36414720635868</v>
       </c>
       <c r="J42" t="n">
-        <v>82.36414720635868</v>
+        <v>275.1770047689919</v>
       </c>
       <c r="K42" t="n">
-        <v>538.1704034716574</v>
+        <v>730.9832610342906</v>
       </c>
       <c r="L42" t="n">
-        <v>1199.258575390946</v>
+        <v>730.9832610342906</v>
       </c>
       <c r="M42" t="n">
-        <v>1537.587931205699</v>
+        <v>730.9832610342906</v>
       </c>
       <c r="N42" t="n">
-        <v>1537.587931205699</v>
+        <v>1604.641353145908</v>
       </c>
       <c r="O42" t="n">
-        <v>1537.587931205699</v>
+        <v>1604.641353145908</v>
       </c>
       <c r="P42" t="n">
-        <v>2099.293823694229</v>
+        <v>1749.449359010245</v>
       </c>
       <c r="Q42" t="n">
         <v>2099.293823694229</v>
@@ -7567,10 +7567,10 @@
         <v>82.36414720635868</v>
       </c>
       <c r="J43" t="n">
-        <v>160.483270524093</v>
+        <v>160.4832705240929</v>
       </c>
       <c r="K43" t="n">
-        <v>379.0721721588546</v>
+        <v>379.0721721588545</v>
       </c>
       <c r="L43" t="n">
         <v>703.0058463514388</v>
@@ -7631,13 +7631,13 @@
         <v>1397.039440148413</v>
       </c>
       <c r="E44" t="n">
-        <v>1048.036000415258</v>
+        <v>1048.036000415257</v>
       </c>
       <c r="F44" t="n">
-        <v>692.3423641188928</v>
+        <v>692.3423641188925</v>
       </c>
       <c r="G44" t="n">
-        <v>348.9508557616725</v>
+        <v>348.9508557616723</v>
       </c>
       <c r="H44" t="n">
         <v>103.3791341393379</v>
@@ -7652,7 +7652,7 @@
         <v>874.7091197831526</v>
       </c>
       <c r="L44" t="n">
-        <v>1054.202545866449</v>
+        <v>1587.300519595391</v>
       </c>
       <c r="M44" t="n">
         <v>1830.521136858203</v>
@@ -7688,7 +7688,7 @@
         <v>3096.745332539791</v>
       </c>
       <c r="X44" t="n">
-        <v>2761.438710458691</v>
+        <v>2761.438710458692</v>
       </c>
       <c r="Y44" t="n">
         <v>2425.838813156729</v>
@@ -7740,13 +7740,13 @@
         <v>1798.999320012543</v>
       </c>
       <c r="O45" t="n">
-        <v>2128.853343056859</v>
+        <v>1798.999320012543</v>
       </c>
       <c r="P45" t="n">
-        <v>2128.853343056859</v>
+        <v>2099.293823694229</v>
       </c>
       <c r="Q45" t="n">
-        <v>2128.853343056859</v>
+        <v>2099.293823694229</v>
       </c>
       <c r="R45" t="n">
         <v>2128.853343056859</v>
@@ -7780,49 +7780,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>714.3405672578622</v>
+        <v>714.3405672578617</v>
       </c>
       <c r="C46" t="n">
-        <v>608.5839705695263</v>
+        <v>608.5839705695258</v>
       </c>
       <c r="D46" t="n">
-        <v>514.4261016423839</v>
+        <v>514.4261016423834</v>
       </c>
       <c r="E46" t="n">
-        <v>418.8520622606509</v>
+        <v>418.8520622606504</v>
       </c>
       <c r="F46" t="n">
-        <v>319.5577121211897</v>
+        <v>319.5577121211893</v>
       </c>
       <c r="G46" t="n">
-        <v>217.6440967966807</v>
+        <v>217.6440967966803</v>
       </c>
       <c r="H46" t="n">
-        <v>133.3734173520849</v>
+        <v>133.3734173520845</v>
       </c>
       <c r="I46" t="n">
         <v>82.36414720635868</v>
       </c>
       <c r="J46" t="n">
-        <v>160.4832705240931</v>
+        <v>160.4832705240928</v>
       </c>
       <c r="K46" t="n">
-        <v>379.0721721588548</v>
+        <v>379.0721721588544</v>
       </c>
       <c r="L46" t="n">
-        <v>703.0058463514389</v>
+        <v>703.0058463514385</v>
       </c>
       <c r="M46" t="n">
-        <v>1056.306476704456</v>
+        <v>1056.306476704455</v>
       </c>
       <c r="N46" t="n">
-        <v>1401.18183301123</v>
+        <v>1401.181833011229</v>
       </c>
       <c r="O46" t="n">
-        <v>1724.779017250228</v>
+        <v>1724.779017250227</v>
       </c>
       <c r="P46" t="n">
-        <v>1994.491031412364</v>
+        <v>1994.491031412363</v>
       </c>
       <c r="Q46" t="n">
         <v>2124.055635127398</v>
@@ -7840,16 +7840,16 @@
         <v>1591.391365205324</v>
       </c>
       <c r="V46" t="n">
-        <v>1382.842395894794</v>
+        <v>1382.842395894793</v>
       </c>
       <c r="W46" t="n">
-        <v>1169.109507153616</v>
+        <v>1169.109507153615</v>
       </c>
       <c r="X46" t="n">
-        <v>996.1024207632465</v>
+        <v>996.1024207632461</v>
       </c>
       <c r="Y46" t="n">
-        <v>836.7034979019589</v>
+        <v>836.7034979019585</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>90.14369925915724</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>105.9564975990664</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>496.3946935832877</v>
       </c>
       <c r="M2" t="n">
         <v>93.29022445704545</v>
@@ -7994,13 +7994,13 @@
         <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q2" t="n">
-        <v>106.174312004765</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
-        <v>104.1322507405728</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,31 +8055,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>68.1893467258493</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M3" t="n">
-        <v>73.7047913440304</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N3" t="n">
-        <v>70.0135013195993</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>57.751479</v>
+        <v>68.45311154908681</v>
       </c>
       <c r="P3" t="n">
-        <v>71.07974292865305</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q3" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>51.43314568295542</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K4" t="n">
-        <v>52.25036955906683</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L4" t="n">
-        <v>70.76880149951448</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M4" t="n">
-        <v>73.08505042462934</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N4" t="n">
-        <v>68.53275343426874</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O4" t="n">
-        <v>72.89500599884562</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P4" t="n">
-        <v>55.77984163990478</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q4" t="n">
-        <v>61.35952565992557</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8216,28 +8216,28 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>89.13638967321712</v>
+        <v>549.1401736751965</v>
       </c>
       <c r="L5" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M5" t="n">
-        <v>324.6376787801896</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N5" t="n">
-        <v>324.2597450797635</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
-        <v>324.5372299489273</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
-        <v>315.6494457121842</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,28 +8292,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>243.5112208650071</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>287.4619781339932</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N6" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O6" t="n">
         <v>57.751479</v>
       </c>
       <c r="P6" t="n">
-        <v>285.6070893259479</v>
+        <v>64.96126755189056</v>
       </c>
       <c r="Q6" t="n">
-        <v>288.0400728279829</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
         <v>88.85829947169823</v>
@@ -8377,22 +8377,22 @@
         <v>208.3638319047618</v>
       </c>
       <c r="L7" t="n">
-        <v>285.9757482170457</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M7" t="n">
-        <v>287.6123968219242</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N7" t="n">
-        <v>283.0600998315636</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O7" t="n">
-        <v>107.7367207796009</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P7" t="n">
-        <v>55.77984163990478</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q7" t="n">
-        <v>61.35952565992557</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,25 +8450,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>479.289169423434</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
-        <v>237.902841257602</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M8" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N8" t="n">
-        <v>92.91229075661933</v>
+        <v>228.5110173896169</v>
       </c>
       <c r="O8" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P8" t="n">
-        <v>483.8021430311011</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q8" t="n">
         <v>414.4388617681339</v>
@@ -8529,31 +8529,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>272.5176252944898</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M9" t="n">
-        <v>447.7170634886343</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P9" t="n">
-        <v>444.4124147530206</v>
+        <v>233.6465907663771</v>
       </c>
       <c r="Q9" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>156.9651572158024</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
         <v>632.7318453389136</v>
@@ -8702,16 +8702,16 @@
         <v>853.701196452193</v>
       </c>
       <c r="O11" t="n">
-        <v>743.321953824879</v>
+        <v>357.5775418767826</v>
       </c>
       <c r="P11" t="n">
         <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,7 +8766,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K12" t="n">
         <v>516.2361426485535</v>
@@ -8775,19 +8775,19 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O12" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P12" t="n">
-        <v>261.3793689866603</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q12" t="n">
-        <v>410.0708656603775</v>
+        <v>69.89237297725236</v>
       </c>
       <c r="R12" t="n">
         <v>59.00019910540541</v>
@@ -8939,7 +8939,7 @@
         <v>853.701196452193</v>
       </c>
       <c r="O14" t="n">
-        <v>204.8391520784733</v>
+        <v>357.5775418767826</v>
       </c>
       <c r="P14" t="n">
         <v>628.1510783507341</v>
@@ -9003,31 +9003,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K15" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
-        <v>517.4884687476415</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M15" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N15" t="n">
-        <v>53.19339339374999</v>
+        <v>247.7181192045195</v>
       </c>
       <c r="O15" t="n">
         <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q15" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
         <v>632.7318453389136</v>
@@ -9173,7 +9173,7 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N17" t="n">
-        <v>853.701196452193</v>
+        <v>467.9567845040966</v>
       </c>
       <c r="O17" t="n">
         <v>743.321953824879</v>
@@ -9182,10 +9182,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q17" t="n">
-        <v>173.6753702816465</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,28 +9243,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M18" t="n">
-        <v>57.56428373841742</v>
+        <v>362.6551416563004</v>
       </c>
       <c r="N18" t="n">
-        <v>381.4963798086762</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P18" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>326.0955061393324</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K20" t="n">
         <v>632.7318453389136</v>
@@ -9416,7 +9416,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P20" t="n">
-        <v>93.64936328088416</v>
+        <v>242.4066664026378</v>
       </c>
       <c r="Q20" t="n">
         <v>414.4388617681339</v>
@@ -9477,10 +9477,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K21" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L21" t="n">
         <v>56.11452381084905</v>
@@ -9489,13 +9489,13 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O21" t="n">
-        <v>548.9835243030853</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P21" t="n">
-        <v>621.6393243851574</v>
+        <v>174.4915021836165</v>
       </c>
       <c r="Q21" t="n">
         <v>410.0708656603775</v>
@@ -9638,10 +9638,10 @@
         <v>330.076592815888</v>
       </c>
       <c r="K23" t="n">
-        <v>94.24904359250789</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L23" t="n">
-        <v>815.2746908024792</v>
+        <v>753.9353362233647</v>
       </c>
       <c r="M23" t="n">
         <v>877.4504173780091</v>
@@ -9656,7 +9656,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q23" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R23" t="n">
         <v>128.2784515920617</v>
@@ -9714,25 +9714,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K24" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L24" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
-        <v>418.55208783606</v>
+        <v>291.6261293987596</v>
       </c>
       <c r="N24" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O24" t="n">
         <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
         <v>410.0708656603775</v>
@@ -9893,7 +9893,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q26" t="n">
-        <v>414.4388617681339</v>
+        <v>414.4388617681325</v>
       </c>
       <c r="R26" t="n">
         <v>128.2784515920617</v>
@@ -9960,22 +9960,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>458.6703921507827</v>
       </c>
       <c r="O27" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,31 +10188,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K30" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L30" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>57.56428373841742</v>
+        <v>859.0058187811131</v>
       </c>
       <c r="N30" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O30" t="n">
         <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q30" t="n">
-        <v>233.5370807419598</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M32" t="n">
-        <v>338.9676156316031</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N32" t="n">
         <v>853.701196452193</v>
@@ -10425,13 +10425,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K33" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>461.5915225678817</v>
       </c>
       <c r="M33" t="n">
         <v>57.56428373841742</v>
@@ -10440,7 +10440,7 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>519.1254239367925</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P33" t="n">
         <v>621.6393243851574</v>
@@ -10583,10 +10583,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K35" t="n">
-        <v>351.0020450750889</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L35" t="n">
         <v>815.2746908024792</v>
@@ -10595,7 +10595,7 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N35" t="n">
-        <v>853.701196452193</v>
+        <v>680.5897608521075</v>
       </c>
       <c r="O35" t="n">
         <v>743.321953824879</v>
@@ -10604,10 +10604,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q35" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R35" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,28 +10662,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L36" t="n">
-        <v>214.1351773860758</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O36" t="n">
-        <v>57.751479</v>
+        <v>97.05286247586395</v>
       </c>
       <c r="P36" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
         <v>88.85829947169823</v>
@@ -10826,7 +10826,7 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L38" t="n">
-        <v>276.7918890560734</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M38" t="n">
         <v>877.4504173780091</v>
@@ -10835,7 +10835,7 @@
         <v>853.701196452193</v>
       </c>
       <c r="O38" t="n">
-        <v>743.321953824879</v>
+        <v>204.8391520784733</v>
       </c>
       <c r="P38" t="n">
         <v>628.1510783507341</v>
@@ -10902,25 +10902,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K39" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L39" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M39" t="n">
-        <v>399.3111077937234</v>
+        <v>362.6551416563003</v>
       </c>
       <c r="N39" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P39" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
         <v>88.85829947169823</v>
@@ -11063,7 +11063,7 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L41" t="n">
-        <v>815.2746908024792</v>
+        <v>317.7581978334117</v>
       </c>
       <c r="M41" t="n">
         <v>877.4504173780091</v>
@@ -11075,13 +11075,13 @@
         <v>743.321953824879</v>
       </c>
       <c r="P41" t="n">
-        <v>414.0733339733104</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,28 +11136,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
-        <v>399.3111077937234</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O42" t="n">
         <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>621.6393243851574</v>
+        <v>200.5303479970833</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
         <v>88.85829947169823</v>
@@ -11300,10 +11300,10 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L44" t="n">
-        <v>276.7918890560734</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
-        <v>877.4504173780091</v>
+        <v>338.9676156316031</v>
       </c>
       <c r="N44" t="n">
         <v>853.701196452193</v>
@@ -11388,16 +11388,16 @@
         <v>935.6763147186165</v>
       </c>
       <c r="O45" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>357.5874164994557</v>
       </c>
       <c r="Q45" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R45" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>270.2785679976323</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23312,10 +23312,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>137.1598858751864</v>
+        <v>218.8661164351644</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>67.32955179142539</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>115.9609337375278</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>133.75866832598</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>121.7808625794368</v>
+        <v>123.6779365924431</v>
       </c>
       <c r="F13" t="n">
-        <v>125.4639702295878</v>
+        <v>127.361044242594</v>
       </c>
       <c r="G13" t="n">
-        <v>128.0570427627851</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>87.30787327673323</v>
+        <v>112.4876102546773</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>79.55881504879648</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>184.9674972241961</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>96.40742005291331</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>94.06199139774841</v>
+        <v>184.3606488246892</v>
       </c>
       <c r="U14" t="n">
-        <v>216.9690424221582</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>101.8350194019009</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>119.7654852877165</v>
       </c>
       <c r="D16" t="n">
-        <v>120.3788538293922</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>123.6779365924431</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>127.361044242594</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>129.9541167757914</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>112.4876102546773</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>79.55881504879648</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.89914674042751</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,13 +23710,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>233.6260432089464</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>238.7581234452875</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>7.915078848687074</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>66.57591967054523</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>110.8744055606854</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>60.47910383369054</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>84.04242619165917</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>93.40789903957135</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>60.47910383369054</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>66.57591967054591</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>110.8744055606854</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>60.47910383369054</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>129.8027652540257</v>
       </c>
       <c r="F28" t="n">
-        <v>133.4858729041767</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G28" t="n">
-        <v>110.981560731516</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I28" t="n">
-        <v>85.6836437103791</v>
+        <v>85.68364371037904</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>54.92104941501629</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>23.91734011607933</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>250.4712242529991</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>137.523994926243</v>
+        <v>106.7614006308803</v>
       </c>
       <c r="D31" t="n">
         <v>128.400756503981</v>
@@ -24853,10 +24853,10 @@
         <v>136.078945437374</v>
       </c>
       <c r="H31" t="n">
-        <v>118.6124389162598</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>85.68364371037904</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.92104941501628</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>4.050093593832571e-13</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1072076.588072922</v>
+        <v>1107019.867270465</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1087578.897528743</v>
+        <v>1107019.867270465</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1099054.587408594</v>
+        <v>1107019.867270465</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1049056.203262904</v>
+        <v>1064494.821841695</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1049056.203262904</v>
+        <v>1064494.821841695</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1127013.87986819</v>
+        <v>1119254.379113151</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1127013.87986819</v>
+        <v>1119254.379113151</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1127013.87986819</v>
+        <v>1119254.379113151</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1127013.87986819</v>
+        <v>1132371.783745566</v>
       </c>
     </row>
     <row r="13">
@@ -26311,43 +26311,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>81441.19651622851</v>
+        <v>81441.19651622852</v>
       </c>
       <c r="C2" t="n">
-        <v>81441.19651622845</v>
+        <v>81441.19651622852</v>
       </c>
       <c r="D2" t="n">
-        <v>81441.19651622849</v>
+        <v>81441.19651622852</v>
       </c>
       <c r="E2" t="n">
-        <v>75444.45216197571</v>
+        <v>76515.13459276786</v>
       </c>
       <c r="F2" t="n">
-        <v>75444.4521619758</v>
+        <v>76515.13459276783</v>
       </c>
       <c r="G2" t="n">
-        <v>81441.19651622853</v>
+        <v>80727.40822903372</v>
       </c>
       <c r="H2" t="n">
-        <v>81441.19651622846</v>
+        <v>80727.40822903371</v>
       </c>
       <c r="I2" t="n">
-        <v>81441.19651622855</v>
+        <v>80727.4082290337</v>
       </c>
       <c r="J2" t="n">
-        <v>78924.71904615722</v>
+        <v>78924.71904615719</v>
       </c>
       <c r="K2" t="n">
-        <v>78924.71904615716</v>
+        <v>78924.7190461572</v>
       </c>
       <c r="L2" t="n">
-        <v>81441.19651622848</v>
+        <v>81441.19651622843</v>
       </c>
       <c r="M2" t="n">
         <v>81441.19651622859</v>
       </c>
       <c r="N2" t="n">
-        <v>81441.19651622861</v>
+        <v>81441.19651622851</v>
       </c>
       <c r="O2" t="n">
         <v>81441.19651622855</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5636.805028434394</v>
+        <v>174955.5098931141</v>
       </c>
       <c r="C3" t="n">
-        <v>69307.4969663337</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>49329.6982374116</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>220927.1681557333</v>
+        <v>191541.2671994909</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>21730.05087321702</v>
+        <v>15263.76897208475</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>41852.09666231429</v>
+        <v>170419.581595123</v>
       </c>
       <c r="K3" t="n">
-        <v>55212.47408757899</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>55650.86860860723</v>
+        <v>43411.34198497283</v>
       </c>
       <c r="M3" t="n">
-        <v>159340.8034302946</v>
+        <v>102190.6169864201</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1869.102507853398</v>
+        <v>8335.384408985681</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,37 +26415,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>324420.7113006185</v>
+        <v>203402.6837676921</v>
       </c>
       <c r="C4" t="n">
-        <v>270732.0204956532</v>
+        <v>203402.6837676921</v>
       </c>
       <c r="D4" t="n">
-        <v>230988.6024269556</v>
+        <v>203402.6837676921</v>
       </c>
       <c r="E4" t="n">
-        <v>106868.687101895</v>
+        <v>106489.5910126386</v>
       </c>
       <c r="F4" t="n">
-        <v>106868.687101895</v>
+        <v>106489.5910126386</v>
       </c>
       <c r="G4" t="n">
-        <v>134317.6995855486</v>
+        <v>125770.5115915573</v>
       </c>
       <c r="H4" t="n">
-        <v>134317.6995855486</v>
+        <v>125770.5115915573</v>
       </c>
       <c r="I4" t="n">
-        <v>134317.6995855486</v>
+        <v>125770.5115915573</v>
       </c>
       <c r="J4" t="n">
-        <v>104184.3863816102</v>
+        <v>104184.3863816103</v>
       </c>
       <c r="K4" t="n">
         <v>104184.3863816103</v>
       </c>
       <c r="L4" t="n">
-        <v>134317.6995855486</v>
+        <v>115761.8292195887</v>
       </c>
       <c r="M4" t="n">
         <v>134317.6995855486</v>
@@ -26467,28 +26467,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>34650.26256189164</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="C5" t="n">
-        <v>47693.52522284717</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>57348.88900881319</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="E5" t="n">
-        <v>65751.09174477412</v>
+        <v>67936.92019047771</v>
       </c>
       <c r="F5" t="n">
-        <v>65751.09174477411</v>
+        <v>67936.92019047771</v>
       </c>
       <c r="G5" t="n">
-        <v>68034.62130334972</v>
+        <v>69540.93243262047</v>
       </c>
       <c r="H5" t="n">
-        <v>68034.62130334972</v>
+        <v>69540.93243262047</v>
       </c>
       <c r="I5" t="n">
-        <v>68034.62130334972</v>
+        <v>69540.93243262047</v>
       </c>
       <c r="J5" t="n">
         <v>73345.15677686482</v>
@@ -26497,10 +26497,10 @@
         <v>73345.15677686484</v>
       </c>
       <c r="L5" t="n">
+        <v>76303.07967139044</v>
+      </c>
+      <c r="M5" t="n">
         <v>68034.62130334972</v>
-      </c>
-      <c r="M5" t="n">
-        <v>68034.62130334973</v>
       </c>
       <c r="N5" t="n">
         <v>68034.62130334972</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-283266.582374716</v>
+        <v>-362286.0622230752</v>
       </c>
       <c r="C6" t="n">
-        <v>-306291.8461686056</v>
+        <v>-187330.5523299611</v>
       </c>
       <c r="D6" t="n">
-        <v>-256225.9931569519</v>
+        <v>-187330.5523299611</v>
       </c>
       <c r="E6" t="n">
-        <v>-318102.4948404268</v>
+        <v>-289551.1650483086</v>
       </c>
       <c r="F6" t="n">
-        <v>-97175.32668469327</v>
+        <v>-98009.89784881774</v>
       </c>
       <c r="G6" t="n">
-        <v>-142641.1752458868</v>
+        <v>-129862.0805329727</v>
       </c>
       <c r="H6" t="n">
-        <v>-120911.1243726699</v>
+        <v>-114598.3115608879</v>
       </c>
       <c r="I6" t="n">
+        <v>-114598.3115608879</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-269074.7352568423</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-98655.15366171938</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-154035.0543597236</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-223101.7413590899</v>
+      </c>
+      <c r="N6" t="n">
         <v>-120911.1243726698</v>
       </c>
-      <c r="J6" t="n">
-        <v>-140456.9207746321</v>
-      </c>
-      <c r="K6" t="n">
-        <v>-153817.298199897</v>
-      </c>
-      <c r="L6" t="n">
-        <v>-176561.9929812771</v>
-      </c>
-      <c r="M6" t="n">
-        <v>-280251.9278029644</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-120911.1243726697</v>
-      </c>
       <c r="O6" t="n">
-        <v>-122780.2268805232</v>
+        <v>-129246.5087816555</v>
       </c>
       <c r="P6" t="n">
         <v>-120911.1243726698</v>
@@ -26692,28 +26692,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="F2" t="n">
-        <v>37.52084440092683</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="G2" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="H2" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="I2" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="J2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="K2" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="L2" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244815</v>
       </c>
       <c r="M2" t="n">
         <v>64.68340799244812</v>
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.8201079258493</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
-        <v>231.3474543231442</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="D4" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="E4" t="n">
-        <v>1029.551840079484</v>
+        <v>1068.126076278546</v>
       </c>
       <c r="F4" t="n">
-        <v>1029.551840079484</v>
+        <v>1068.126076278546</v>
       </c>
       <c r="G4" t="n">
-        <v>1029.551840079484</v>
+        <v>1068.126076278546</v>
       </c>
       <c r="H4" t="n">
-        <v>1029.551840079484</v>
+        <v>1068.126076278546</v>
       </c>
       <c r="I4" t="n">
-        <v>1029.551840079484</v>
+        <v>1068.126076278546</v>
       </c>
       <c r="J4" t="n">
         <v>1165.546221132785</v>
@@ -26817,7 +26817,7 @@
         <v>1165.546221132785</v>
       </c>
       <c r="L4" t="n">
-        <v>1029.551840079484</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="M4" t="n">
         <v>1029.551840079484</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>27.16256359152128</v>
+        <v>19.07971121510594</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.336378134816762</v>
+        <v>10.41923051123212</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>62.34702985763133</v>
+        <v>54.26417748121604</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>2.336378134816748</v>
+        <v>10.4192305112321</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.8201079258493</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
-        <v>214.5273463972949</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>158.8053254270727</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>639.3990603292666</v>
+        <v>546.0625059085208</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>152.8144889791506</v>
+        <v>619.4837152242638</v>
       </c>
       <c r="K4" t="n">
-        <v>214.5273463972949</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>22.81094437377135</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>639.3990603292668</v>
+        <v>410.0681248552195</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>27.16256359152128</v>
+        <v>19.07971121510594</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>2.336378134816762</v>
+        <v>10.41923051123212</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>16.8201079258493</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
-        <v>214.5273463972949</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>158.8053254270727</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>639.3990603292666</v>
+        <v>546.0625059085208</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>152.1234863376399</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>215.7485780756179</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>329.5190711910348</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
         <v>379.9226978561831</v>
@@ -27455,28 +27455,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>91.05017309347116</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>89.10010363295538</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>55.22458977355305</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,25 +27506,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>90.09000186098496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>169.0026014042546</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>152.5623307880514</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>141.0795903044698</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>165.577887163712</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>69.60484008026629</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>119.2525439942232</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
@@ -27625,10 +27625,10 @@
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>229.085652897435</v>
+        <v>223.5250986947254</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>307.7994123985592</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>23.14243249994081</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>114.9917247937399</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
         <v>379.9226978561831</v>
@@ -27682,7 +27682,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27743,25 +27743,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>70.9372750794501</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27792,7 +27792,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>5.805797309920735</v>
+        <v>18.50671554844044</v>
       </c>
       <c r="U7" t="n">
-        <v>48.62271165619291</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>221.8957782781086</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.96618811762767</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>15.87056502964566</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>172.7521710095745</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>206.5204902295178</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27913,7 +27913,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>396.636963852737</v>
@@ -27938,19 +27938,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>49.79961218376297</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27983,7 +27983,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
         <v>159.3017069803637</v>
@@ -28023,7 +28023,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>148.1113806425979</v>
@@ -28062,13 +28062,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>4.874559219806031</v>
+        <v>174.4710177215966</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="C11" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="D11" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="E11" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="F11" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="G11" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="H11" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="I11" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="T11" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="U11" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="V11" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="W11" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="X11" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="Y11" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792062</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="C13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="D13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="E13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="F13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="G13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="H13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="I13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="J13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="K13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="L13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="M13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="N13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="O13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="P13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="Q13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="R13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="S13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="T13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="U13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="V13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="W13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="X13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="Y13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792062</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>37.52084440092683</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="C14" t="n">
-        <v>37.52084440092683</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="D14" t="n">
-        <v>37.52084440092683</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="E14" t="n">
-        <v>37.52084440092683</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="F14" t="n">
-        <v>37.52084440092683</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="G14" t="n">
-        <v>37.52084440092683</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="H14" t="n">
-        <v>37.52084440092683</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="I14" t="n">
-        <v>37.52084440092683</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>37.52084440092683</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="T14" t="n">
-        <v>37.52084440092683</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="U14" t="n">
-        <v>37.52084440092683</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="V14" t="n">
-        <v>37.52084440092683</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="W14" t="n">
-        <v>37.52084440092683</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="X14" t="n">
-        <v>37.52084440092683</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="Y14" t="n">
-        <v>37.52084440092683</v>
+        <v>35.62377038792062</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>37.52084440092683</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="C16" t="n">
-        <v>37.52084440092683</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="D16" t="n">
-        <v>37.52084440092683</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="E16" t="n">
-        <v>37.52084440092683</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="F16" t="n">
-        <v>37.52084440092683</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="G16" t="n">
-        <v>37.52084440092683</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="H16" t="n">
-        <v>37.52084440092683</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="I16" t="n">
-        <v>37.52084440092683</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="J16" t="n">
-        <v>37.52084440092683</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="K16" t="n">
-        <v>37.52084440092683</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="L16" t="n">
-        <v>37.52084440092683</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="M16" t="n">
-        <v>37.52084440092683</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="N16" t="n">
-        <v>37.52084440092683</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="O16" t="n">
-        <v>37.52084440092683</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="P16" t="n">
-        <v>37.52084440092683</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="Q16" t="n">
-        <v>37.52084440092683</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="R16" t="n">
-        <v>37.52084440092683</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="S16" t="n">
-        <v>37.52084440092683</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="T16" t="n">
-        <v>37.52084440092683</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="U16" t="n">
-        <v>37.52084440092683</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="V16" t="n">
-        <v>37.52084440092683</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="W16" t="n">
-        <v>37.52084440092683</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="X16" t="n">
-        <v>37.52084440092683</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="Y16" t="n">
-        <v>37.52084440092683</v>
+        <v>35.62377038792062</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="C17" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="D17" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="E17" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="F17" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="G17" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="H17" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="I17" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="T17" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="U17" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="V17" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="W17" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="X17" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="Y17" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="C19" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="D19" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="E19" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="F19" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="G19" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="H19" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="I19" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="J19" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="K19" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="L19" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="M19" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="N19" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="O19" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="P19" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="Q19" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="R19" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="S19" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="T19" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="U19" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="V19" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="W19" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="X19" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="Y19" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="C20" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="D20" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="E20" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="F20" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="G20" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="H20" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="I20" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="T20" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="U20" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="V20" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="W20" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="X20" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="Y20" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="C22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="D22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="E22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="F22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="G22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="H22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="I22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="J22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="K22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="L22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="M22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="N22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="O22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="P22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="Q22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="R22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="S22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="T22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="U22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="V22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="W22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="X22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="Y22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="C23" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="D23" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="E23" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="F23" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="G23" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="H23" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="I23" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="T23" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="U23" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="V23" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="W23" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="X23" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="Y23" t="n">
-        <v>64.68340799244817</v>
+        <v>54.70348160302656</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="C25" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="D25" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="E25" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="F25" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="G25" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="H25" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="I25" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="J25" t="n">
-        <v>64.68340799244825</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="K25" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="L25" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="M25" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="N25" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="O25" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="P25" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="Q25" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="R25" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="S25" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="T25" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="U25" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="V25" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="W25" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="X25" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
       <c r="Y25" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302656</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="K28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="L28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="M28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="N28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="O28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="P28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="R28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="S28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C29" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D29" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E29" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F29" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G29" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H29" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I29" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T29" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U29" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V29" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W29" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X29" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y29" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C31" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D31" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E31" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F31" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G31" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H31" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I31" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J31" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="K31" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="L31" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="M31" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="N31" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="O31" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="P31" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="R31" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="S31" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T31" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U31" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V31" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W31" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X31" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y31" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>64.68340799244811</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>64.68340799244811</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>64.68340799244811</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>64.68340799244811</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>64.68340799244811</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>64.68340799244811</v>
+        <v>54.3836779403822</v>
       </c>
       <c r="H32" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244815</v>
       </c>
       <c r="I32" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244815</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>64.68340799244811</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244815</v>
       </c>
       <c r="U32" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244815</v>
       </c>
       <c r="V32" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244815</v>
       </c>
       <c r="W32" t="n">
-        <v>64.68340799244811</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244815</v>
       </c>
       <c r="Y32" t="n">
-        <v>64.68340799244811</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244815</v>
       </c>
       <c r="C34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244815</v>
       </c>
       <c r="D34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244815</v>
       </c>
       <c r="E34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244815</v>
       </c>
       <c r="F34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244815</v>
       </c>
       <c r="G34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244815</v>
       </c>
       <c r="H34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244815</v>
       </c>
       <c r="I34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244815</v>
       </c>
       <c r="J34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244815</v>
       </c>
       <c r="K34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244815</v>
       </c>
       <c r="L34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244815</v>
       </c>
       <c r="M34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244815</v>
       </c>
       <c r="N34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244815</v>
       </c>
       <c r="O34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244815</v>
       </c>
       <c r="P34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244815</v>
       </c>
       <c r="Q34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244815</v>
       </c>
       <c r="R34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244815</v>
       </c>
       <c r="S34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244815</v>
       </c>
       <c r="T34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244815</v>
       </c>
       <c r="U34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244815</v>
       </c>
       <c r="V34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244815</v>
       </c>
       <c r="W34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244815</v>
       </c>
       <c r="X34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244815</v>
       </c>
       <c r="Y34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244815</v>
       </c>
     </row>
     <row r="35">
@@ -30165,7 +30165,7 @@
         <v>64.68340799244812</v>
       </c>
       <c r="J37" t="n">
-        <v>64.68340799244777</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="K37" t="n">
         <v>64.68340799244812</v>
@@ -30180,7 +30180,7 @@
         <v>64.68340799244812</v>
       </c>
       <c r="O37" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244777</v>
       </c>
       <c r="P37" t="n">
         <v>64.68340799244812</v>
@@ -30402,7 +30402,7 @@
         <v>64.68340799244812</v>
       </c>
       <c r="J40" t="n">
-        <v>64.6834079924478</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="K40" t="n">
         <v>64.68340799244812</v>
@@ -30639,13 +30639,13 @@
         <v>64.68340799244811</v>
       </c>
       <c r="J43" t="n">
-        <v>64.68340799244825</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="K43" t="n">
         <v>64.68340799244811</v>
       </c>
       <c r="L43" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244822</v>
       </c>
       <c r="M43" t="n">
         <v>64.68340799244811</v>
@@ -34696,13 +34696,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>16.8201079258493</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>16.8201079258493</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34714,13 +34714,13 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q2" t="n">
-        <v>16.14050760561297</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
-        <v>16.8201079258493</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>16.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M3" t="n">
-        <v>16.14050760561297</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N3" t="n">
-        <v>16.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>10.70163254908682</v>
       </c>
       <c r="P3" t="n">
-        <v>16.8201079258493</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>14.22479737900053</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>156.1134623456949</v>
       </c>
       <c r="L4" t="n">
-        <v>16.14050760561297</v>
+        <v>262.5223235152127</v>
       </c>
       <c r="M4" t="n">
-        <v>16.8201079258493</v>
+        <v>292.1859155964578</v>
       </c>
       <c r="N4" t="n">
-        <v>16.8201079258493</v>
+        <v>283.67553777197</v>
       </c>
       <c r="O4" t="n">
-        <v>16.8201079258493</v>
+        <v>262.1824346732062</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>207.7529699491034</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>66.18992909344529</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,28 +34936,28 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>460.0037840019794</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M5" t="n">
-        <v>231.3474543231442</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N5" t="n">
-        <v>231.3474543231442</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>231.3474543231442</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>222.0000824313</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>192.1419820650071</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>231.3474543231442</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>231.3474543231442</v>
+        <v>10.70163254908682</v>
       </c>
       <c r="Q6" t="n">
-        <v>231.3474543231442</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>29.85810036629282</v>
@@ -35097,22 +35097,22 @@
         <v>156.1134623456949</v>
       </c>
       <c r="L7" t="n">
-        <v>231.3474543231442</v>
+        <v>262.5223235152127</v>
       </c>
       <c r="M7" t="n">
-        <v>231.3474543231442</v>
+        <v>292.1859155964578</v>
       </c>
       <c r="N7" t="n">
-        <v>231.3474543231442</v>
+        <v>283.67553777197</v>
       </c>
       <c r="O7" t="n">
-        <v>51.66182270660455</v>
+        <v>262.1824346732062</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>207.7529699491034</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>66.18992909344529</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>142.4174431947572</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>135.5987266329976</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q8" t="n">
         <v>324.4050573689818</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>216.4031014836407</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M9" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P9" t="n">
-        <v>390.1527797502169</v>
+        <v>179.3869557635734</v>
       </c>
       <c r="Q9" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>83.64156588249449</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
         <v>543.5954556656965</v>
@@ -35422,16 +35422,16 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O11" t="n">
-        <v>650.1321781990958</v>
+        <v>264.3877662509994</v>
       </c>
       <c r="P11" t="n">
         <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>460.4103598639381</v>
@@ -35495,19 +35495,19 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P12" t="n">
-        <v>207.1197339838565</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>353.3782471555388</v>
+        <v>13.19975447241365</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>51.7456417799274</v>
+        <v>49.84856776692115</v>
       </c>
       <c r="K13" t="n">
-        <v>193.6343067466218</v>
+        <v>191.7372327336155</v>
       </c>
       <c r="L13" t="n">
-        <v>300.0431679161396</v>
+        <v>298.1460939031333</v>
       </c>
       <c r="M13" t="n">
-        <v>329.7067599973847</v>
+        <v>327.8096859843785</v>
       </c>
       <c r="N13" t="n">
-        <v>321.1963821728968</v>
+        <v>319.2993081598906</v>
       </c>
       <c r="O13" t="n">
-        <v>299.7032790741331</v>
+        <v>297.8062050611268</v>
       </c>
       <c r="P13" t="n">
-        <v>245.2738143500303</v>
+        <v>243.376740337024</v>
       </c>
       <c r="Q13" t="n">
-        <v>103.7107734943722</v>
+        <v>101.8136994813659</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35659,7 +35659,7 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O14" t="n">
-        <v>111.6493764526901</v>
+        <v>264.3877662509994</v>
       </c>
       <c r="P14" t="n">
         <v>534.50171506985</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>461.3739449367924</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>194.5247258107695</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>51.74564177992736</v>
+        <v>49.84856776692115</v>
       </c>
       <c r="K16" t="n">
-        <v>193.6343067466217</v>
+        <v>191.7372327336155</v>
       </c>
       <c r="L16" t="n">
-        <v>300.0431679161395</v>
+        <v>298.1460939031333</v>
       </c>
       <c r="M16" t="n">
-        <v>329.7067599973847</v>
+        <v>327.8096859843785</v>
       </c>
       <c r="N16" t="n">
-        <v>321.1963821728968</v>
+        <v>319.2993081598906</v>
       </c>
       <c r="O16" t="n">
-        <v>299.703279074133</v>
+        <v>297.8062050611268</v>
       </c>
       <c r="P16" t="n">
-        <v>245.2738143500302</v>
+        <v>243.376740337024</v>
       </c>
       <c r="Q16" t="n">
-        <v>103.7107734943721</v>
+        <v>101.8136994813659</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
         <v>543.5954556656965</v>
@@ -35893,7 +35893,7 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N17" t="n">
-        <v>760.7889056955737</v>
+        <v>375.0444937474773</v>
       </c>
       <c r="O17" t="n">
         <v>650.1321781990958</v>
@@ -35902,10 +35902,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q17" t="n">
-        <v>83.64156588249439</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>305.0908579178829</v>
       </c>
       <c r="N18" t="n">
-        <v>328.3029864149262</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P18" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>78.90820537144864</v>
+        <v>68.92827898202708</v>
       </c>
       <c r="K19" t="n">
-        <v>220.796870338143</v>
+        <v>210.8169439487215</v>
       </c>
       <c r="L19" t="n">
-        <v>327.2057315076608</v>
+        <v>317.2258051182392</v>
       </c>
       <c r="M19" t="n">
-        <v>356.869323588906</v>
+        <v>346.8893971994844</v>
       </c>
       <c r="N19" t="n">
-        <v>348.3589457644181</v>
+        <v>338.3790193749965</v>
       </c>
       <c r="O19" t="n">
-        <v>326.8658426656543</v>
+        <v>316.8859162762328</v>
       </c>
       <c r="P19" t="n">
-        <v>272.4363779415515</v>
+        <v>262.45645155213</v>
       </c>
       <c r="Q19" t="n">
-        <v>130.8733370858934</v>
+        <v>120.8934106964718</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>252.7719148060245</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K20" t="n">
         <v>543.5954556656965</v>
@@ -36136,7 +36136,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>148.7573031217536</v>
       </c>
       <c r="Q20" t="n">
         <v>324.4050573689818</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36209,13 +36209,13 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O21" t="n">
-        <v>491.2320453030854</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P21" t="n">
-        <v>567.3796893823536</v>
+        <v>120.2318671808127</v>
       </c>
       <c r="Q21" t="n">
         <v>353.3782471555388</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>78.90820537144864</v>
+        <v>68.92827898202708</v>
       </c>
       <c r="K22" t="n">
-        <v>220.796870338143</v>
+        <v>210.8169439487215</v>
       </c>
       <c r="L22" t="n">
-        <v>327.2057315076608</v>
+        <v>317.2258051182392</v>
       </c>
       <c r="M22" t="n">
-        <v>356.869323588906</v>
+        <v>346.8893971994844</v>
       </c>
       <c r="N22" t="n">
-        <v>348.3589457644181</v>
+        <v>338.3790193749965</v>
       </c>
       <c r="O22" t="n">
-        <v>326.8658426656543</v>
+        <v>316.8859162762328</v>
       </c>
       <c r="P22" t="n">
-        <v>272.4363779415515</v>
+        <v>262.45645155213</v>
       </c>
       <c r="Q22" t="n">
-        <v>130.8733370858934</v>
+        <v>120.8934106964718</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,10 +36358,10 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K23" t="n">
-        <v>5.112653919290765</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L23" t="n">
-        <v>719.7892927396343</v>
+        <v>658.4499381605199</v>
       </c>
       <c r="M23" t="n">
         <v>784.1601929209636</v>
@@ -36376,7 +36376,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q23" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>40.9663087773382</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>360.9878040976426</v>
+        <v>234.0618456603422</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
         <v>353.3782471555388</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>78.90820537144879</v>
+        <v>68.92827898202708</v>
       </c>
       <c r="K25" t="n">
-        <v>220.796870338143</v>
+        <v>210.8169439487215</v>
       </c>
       <c r="L25" t="n">
-        <v>327.2057315076608</v>
+        <v>317.2258051182392</v>
       </c>
       <c r="M25" t="n">
-        <v>356.869323588906</v>
+        <v>346.8893971994844</v>
       </c>
       <c r="N25" t="n">
-        <v>348.3589457644181</v>
+        <v>338.3790193749965</v>
       </c>
       <c r="O25" t="n">
-        <v>326.8658426656543</v>
+        <v>316.8859162762328</v>
       </c>
       <c r="P25" t="n">
-        <v>272.4363779415515</v>
+        <v>262.45645155213</v>
       </c>
       <c r="Q25" t="n">
-        <v>130.8733370858934</v>
+        <v>120.8934106964718</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36613,7 +36613,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q26" t="n">
-        <v>324.4050573689818</v>
+        <v>324.4050573689805</v>
       </c>
       <c r="R26" t="n">
         <v>40.9663087773382</v>
@@ -36680,22 +36680,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>882.4829213248665</v>
+        <v>405.4769987570327</v>
       </c>
       <c r="O27" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>43.72373910533852</v>
+        <v>43.72373910533858</v>
       </c>
       <c r="K28" t="n">
-        <v>185.6124040720329</v>
+        <v>185.612404072033</v>
       </c>
       <c r="L28" t="n">
         <v>292.0212652415507</v>
       </c>
       <c r="M28" t="n">
-        <v>321.6848573227958</v>
+        <v>321.6848573227959</v>
       </c>
       <c r="N28" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O28" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995443</v>
       </c>
       <c r="P28" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q28" t="n">
-        <v>95.68887081978329</v>
+        <v>95.68887081978335</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>801.4415350426957</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>176.8444622371211</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37075,7 +37075,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M32" t="n">
-        <v>245.6773911745577</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N32" t="n">
         <v>760.7889056955737</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>405.4769987570326</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37160,7 +37160,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>461.3739449367924</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P33" t="n">
         <v>567.3796893823536</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>78.90820537144864</v>
+        <v>78.90820537144867</v>
       </c>
       <c r="K34" t="n">
-        <v>220.796870338143</v>
+        <v>220.7968703381431</v>
       </c>
       <c r="L34" t="n">
-        <v>327.2057315076608</v>
+        <v>327.2057315076609</v>
       </c>
       <c r="M34" t="n">
         <v>356.869323588906</v>
@@ -37239,7 +37239,7 @@
         <v>348.3589457644181</v>
       </c>
       <c r="O34" t="n">
-        <v>326.8658426656543</v>
+        <v>326.8658426656544</v>
       </c>
       <c r="P34" t="n">
         <v>272.4363779415515</v>
@@ -37303,10 +37303,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K35" t="n">
-        <v>261.8656554018718</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L35" t="n">
         <v>719.7892927396343</v>
@@ -37315,7 +37315,7 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N35" t="n">
-        <v>760.7889056955737</v>
+        <v>587.6774700954882</v>
       </c>
       <c r="O35" t="n">
         <v>650.1321781990958</v>
@@ -37324,10 +37324,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q35" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>158.0206535752268</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>39.30138347586395</v>
       </c>
       <c r="P36" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
         <v>29.85810036629282</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>78.90820537144829</v>
+        <v>78.90820537144864</v>
       </c>
       <c r="K37" t="n">
         <v>220.796870338143</v>
@@ -37476,7 +37476,7 @@
         <v>348.3589457644181</v>
       </c>
       <c r="O37" t="n">
-        <v>326.8658426656543</v>
+        <v>326.865842665654</v>
       </c>
       <c r="P37" t="n">
         <v>272.4363779415515</v>
@@ -37546,7 +37546,7 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L38" t="n">
-        <v>181.3064909932286</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M38" t="n">
         <v>784.1601929209636</v>
@@ -37555,7 +37555,7 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O38" t="n">
-        <v>650.1321781990958</v>
+        <v>111.6493764526901</v>
       </c>
       <c r="P38" t="n">
         <v>534.50171506985</v>
@@ -37622,25 +37622,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M39" t="n">
-        <v>341.746824055306</v>
+        <v>305.0908579178828</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P39" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
         <v>29.85810036629282</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>78.90820537144832</v>
+        <v>78.90820537144864</v>
       </c>
       <c r="K40" t="n">
         <v>220.796870338143</v>
@@ -37783,7 +37783,7 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L41" t="n">
-        <v>719.7892927396343</v>
+        <v>222.2727997705669</v>
       </c>
       <c r="M41" t="n">
         <v>784.1601929209636</v>
@@ -37795,13 +37795,13 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P41" t="n">
-        <v>320.4239706924262</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>341.746824055306</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>567.3796893823536</v>
+        <v>146.2707129942796</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
         <v>29.85810036629282</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>78.90820537144879</v>
+        <v>78.90820537144864</v>
       </c>
       <c r="K43" t="n">
         <v>220.796870338143</v>
       </c>
       <c r="L43" t="n">
-        <v>327.2057315076608</v>
+        <v>327.2057315076609</v>
       </c>
       <c r="M43" t="n">
         <v>356.869323588906</v>
@@ -38020,10 +38020,10 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L44" t="n">
-        <v>181.3064909932286</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M44" t="n">
-        <v>784.1601929209636</v>
+        <v>245.6773911745577</v>
       </c>
       <c r="N44" t="n">
         <v>760.7889056955737</v>
@@ -38108,16 +38108,16 @@
         <v>882.4829213248665</v>
       </c>
       <c r="O45" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>303.327781496652</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
